--- a/BusPlanning_feasible.xlsx
+++ b/BusPlanning_feasible.xlsx
@@ -1558,12 +1558,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>11:06:00</t>
+          <t>11:32:41</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>11:31:00</t>
+          <t>11:57:41</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>39960</v>
+        <v>41561.06773333333</v>
       </c>
       <c r="J28" t="n">
-        <v>41460</v>
+        <v>43061.06773333333</v>
       </c>
     </row>
     <row r="29">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>11:31:00</t>
+          <t>11:57:41</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>11:51:00</t>
+          <t>12:17:41</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1621,10 +1621,10 @@
         <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>41460</v>
+        <v>43061.06773333333</v>
       </c>
       <c r="J29" t="n">
-        <v>42660</v>
+        <v>44261.06773333333</v>
       </c>
     </row>
     <row r="30">
@@ -1640,12 +1640,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>11:51:00</t>
+          <t>12:17:41</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>11:56:00</t>
+          <t>12:22:41</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1661,10 +1661,10 @@
         <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>42660</v>
+        <v>44261.06773333333</v>
       </c>
       <c r="J30" t="n">
-        <v>42960</v>
+        <v>44561.06773333333</v>
       </c>
     </row>
     <row r="31">
@@ -1680,12 +1680,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>11:56:00</t>
+          <t>12:22:41</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12:21:00</t>
+          <t>12:47:41</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1703,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>42960</v>
+        <v>44561.06773333333</v>
       </c>
       <c r="J31" t="n">
-        <v>44460</v>
+        <v>46061.06773333333</v>
       </c>
     </row>
     <row r="32">
@@ -1722,12 +1722,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>12:21:00</t>
+          <t>12:47:41</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>12:41:00</t>
+          <t>13:07:41</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1743,10 +1743,10 @@
         <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>44460</v>
+        <v>46061.06773333333</v>
       </c>
       <c r="J32" t="n">
-        <v>45660</v>
+        <v>47261.06773333333</v>
       </c>
     </row>
     <row r="33">
@@ -1762,12 +1762,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>12:41:00</t>
+          <t>13:07:41</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>12:46:00</t>
+          <t>13:12:41</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1783,10 +1783,10 @@
         <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>45660</v>
+        <v>47261.06773333333</v>
       </c>
       <c r="J33" t="n">
-        <v>45960</v>
+        <v>47561.06773333333</v>
       </c>
     </row>
     <row r="34">
@@ -1802,12 +1802,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12:46:00</t>
+          <t>13:12:41</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>13:11:00</t>
+          <t>13:37:41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1825,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>45960</v>
+        <v>47561.06773333333</v>
       </c>
       <c r="J34" t="n">
-        <v>47460</v>
+        <v>49061.06773333333</v>
       </c>
     </row>
     <row r="35">
@@ -1844,12 +1844,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:11:00</t>
+          <t>13:37:41</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>13:31:00</t>
+          <t>13:57:41</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1865,10 +1865,10 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>47460</v>
+        <v>49061.06773333333</v>
       </c>
       <c r="J35" t="n">
-        <v>48660</v>
+        <v>50261.06773333333</v>
       </c>
     </row>
     <row r="36">
@@ -1884,12 +1884,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:31:00</t>
+          <t>13:57:41</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>13:36:00</t>
+          <t>14:02:41</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1905,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>48660</v>
+        <v>50261.06773333333</v>
       </c>
       <c r="J36" t="n">
-        <v>48960</v>
+        <v>50561.06773333333</v>
       </c>
     </row>
     <row r="37">
@@ -1924,12 +1924,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:36:00</t>
+          <t>14:02:41</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>14:01:00</t>
+          <t>14:27:41</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1947,10 +1947,10 @@
         <v>1</v>
       </c>
       <c r="I37" t="n">
-        <v>48960</v>
+        <v>50561.06773333333</v>
       </c>
       <c r="J37" t="n">
-        <v>50460</v>
+        <v>52061.06773333333</v>
       </c>
     </row>
     <row r="38">
@@ -1966,12 +1966,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:01:00</t>
+          <t>14:27:41</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>14:21:00</t>
+          <t>14:47:41</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1987,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>50460</v>
+        <v>52061.06773333333</v>
       </c>
       <c r="J38" t="n">
-        <v>51660</v>
+        <v>53261.06773333333</v>
       </c>
     </row>
     <row r="39">
@@ -2006,12 +2006,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>14:21:00</t>
+          <t>14:47:41</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>14:52:41</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2027,10 +2027,10 @@
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>51660</v>
+        <v>53261.06773333333</v>
       </c>
       <c r="J39" t="n">
-        <v>51960</v>
+        <v>53561.06773333333</v>
       </c>
     </row>
     <row r="40">
@@ -2046,12 +2046,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:26:00</t>
+          <t>14:52:41</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>15:17:41</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2069,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>51960</v>
+        <v>53561.06773333333</v>
       </c>
       <c r="J40" t="n">
-        <v>53460</v>
+        <v>55061.06773333333</v>
       </c>
     </row>
     <row r="41">
@@ -2088,12 +2088,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>15:17:41</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>14:55:00</t>
+          <t>15:21:41</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2109,10 +2109,10 @@
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>53460</v>
+        <v>55061.06773333333</v>
       </c>
       <c r="J41" t="n">
-        <v>53700</v>
+        <v>55301.06773333333</v>
       </c>
     </row>
     <row r="42">
@@ -2128,12 +2128,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>14:55:00</t>
+          <t>15:21:41</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15:16:00</t>
+          <t>15:42:41</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2149,10 +2149,10 @@
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>53700</v>
+        <v>55301.06773333333</v>
       </c>
       <c r="J42" t="n">
-        <v>54960</v>
+        <v>56561.06773333333</v>
       </c>
     </row>
     <row r="43">
@@ -2168,12 +2168,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>15:16:00</t>
+          <t>15:42:41</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>15:36:00</t>
+          <t>16:02:41</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2189,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>54960</v>
+        <v>56561.06773333333</v>
       </c>
       <c r="J43" t="n">
-        <v>56160</v>
+        <v>57761.06773333333</v>
       </c>
     </row>
     <row r="44">
@@ -2208,12 +2208,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>15:36:00</t>
+          <t>16:02:41</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>16:01:00</t>
+          <t>16:27:41</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2231,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="I44" t="n">
-        <v>56160</v>
+        <v>57761.06773333333</v>
       </c>
       <c r="J44" t="n">
-        <v>57660</v>
+        <v>59261.06773333333</v>
       </c>
     </row>
     <row r="45">
@@ -2250,12 +2250,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:01:00</t>
+          <t>16:27:41</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>16:21:00</t>
+          <t>16:47:41</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2271,10 +2271,10 @@
         <v>1</v>
       </c>
       <c r="I45" t="n">
-        <v>57660</v>
+        <v>59261.06773333333</v>
       </c>
       <c r="J45" t="n">
-        <v>58860</v>
+        <v>60461.06773333333</v>
       </c>
     </row>
     <row r="46">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:21:00</t>
+          <t>16:47:41</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>16:26:00</t>
+          <t>16:52:41</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2311,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>58860</v>
+        <v>60461.06773333333</v>
       </c>
       <c r="J46" t="n">
-        <v>59160</v>
+        <v>60761.06773333333</v>
       </c>
     </row>
     <row r="47">
@@ -2330,12 +2330,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>16:26:00</t>
+          <t>16:52:41</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>16:51:00</t>
+          <t>17:17:41</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2353,10 +2353,10 @@
         <v>1</v>
       </c>
       <c r="I47" t="n">
-        <v>59160</v>
+        <v>60761.06773333333</v>
       </c>
       <c r="J47" t="n">
-        <v>60660</v>
+        <v>62261.06773333333</v>
       </c>
     </row>
     <row r="48">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:51:00</t>
+          <t>17:17:41</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:41:41</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2395,10 +2395,10 @@
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>60660</v>
+        <v>62261.06773333333</v>
       </c>
       <c r="J48" t="n">
-        <v>62100</v>
+        <v>63701.06773333333</v>
       </c>
     </row>
     <row r="49">
@@ -2414,12 +2414,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:41:41</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>17:16:00</t>
+          <t>17:42:41</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2435,10 +2435,10 @@
         <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>62100</v>
+        <v>63701.06773333333</v>
       </c>
       <c r="J49" t="n">
-        <v>62160</v>
+        <v>63761.06773333333</v>
       </c>
     </row>
     <row r="50">
@@ -2454,12 +2454,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>17:16:00</t>
+          <t>17:42:41</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>17:41:00</t>
+          <t>18:07:41</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -2477,10 +2477,10 @@
         <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>62160</v>
+        <v>63761.06773333333</v>
       </c>
       <c r="J50" t="n">
-        <v>63660</v>
+        <v>65261.06773333333</v>
       </c>
     </row>
     <row r="51">
@@ -2496,12 +2496,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>17:41:00</t>
+          <t>18:07:41</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>18:01:00</t>
+          <t>18:27:41</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -2517,10 +2517,10 @@
         <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>63660</v>
+        <v>65261.06773333333</v>
       </c>
       <c r="J51" t="n">
-        <v>64860</v>
+        <v>66461.06773333333</v>
       </c>
     </row>
     <row r="52">
@@ -2536,12 +2536,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>18:01:00</t>
+          <t>18:27:41</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>18:06:00</t>
+          <t>18:32:41</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2557,10 +2557,10 @@
         <v>1</v>
       </c>
       <c r="I52" t="n">
-        <v>64860</v>
+        <v>66461.06773333333</v>
       </c>
       <c r="J52" t="n">
-        <v>65160</v>
+        <v>66761.06773333333</v>
       </c>
     </row>
     <row r="53">
@@ -2576,12 +2576,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>18:06:00</t>
+          <t>18:32:41</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>18:31:00</t>
+          <t>18:57:41</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -2599,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="I53" t="n">
-        <v>65160</v>
+        <v>66761.06773333333</v>
       </c>
       <c r="J53" t="n">
-        <v>66660</v>
+        <v>68261.06773333333</v>
       </c>
     </row>
     <row r="54">
@@ -2618,12 +2618,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>18:31:00</t>
+          <t>18:57:41</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>18:51:00</t>
+          <t>19:17:41</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2639,10 +2639,10 @@
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>66660</v>
+        <v>68261.06773333333</v>
       </c>
       <c r="J54" t="n">
-        <v>67860</v>
+        <v>69461.06773333333</v>
       </c>
     </row>
     <row r="55">
@@ -2658,12 +2658,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>18:51:00</t>
+          <t>19:17:41</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>18:56:00</t>
+          <t>19:22:41</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2679,10 +2679,10 @@
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>67860</v>
+        <v>69461.06773333333</v>
       </c>
       <c r="J55" t="n">
-        <v>68160</v>
+        <v>69761.06773333333</v>
       </c>
     </row>
     <row r="56">
@@ -2698,12 +2698,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>18:56:00</t>
+          <t>19:22:41</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>19:21:00</t>
+          <t>19:47:41</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2721,10 +2721,10 @@
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>68160</v>
+        <v>69761.06773333333</v>
       </c>
       <c r="J56" t="n">
-        <v>69660</v>
+        <v>71261.06773333333</v>
       </c>
     </row>
     <row r="57">
@@ -2740,12 +2740,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>19:21:00</t>
+          <t>19:47:41</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19:41:00</t>
+          <t>20:07:41</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2761,10 +2761,10 @@
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>69660</v>
+        <v>71261.06773333333</v>
       </c>
       <c r="J57" t="n">
-        <v>70860</v>
+        <v>72461.06773333333</v>
       </c>
     </row>
     <row r="58">
@@ -2780,12 +2780,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>19:41:00</t>
+          <t>20:07:41</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>20:06:00</t>
+          <t>20:32:41</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2803,10 +2803,10 @@
         <v>1</v>
       </c>
       <c r="I58" t="n">
-        <v>70860</v>
+        <v>72461.06773333333</v>
       </c>
       <c r="J58" t="n">
-        <v>72360</v>
+        <v>73961.06773333333</v>
       </c>
     </row>
     <row r="59">
@@ -2822,12 +2822,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>20:06:00</t>
+          <t>20:32:41</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>20:07:00</t>
+          <t>20:33:41</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="I59" t="n">
-        <v>72360</v>
+        <v>73961.06773333333</v>
       </c>
       <c r="J59" t="n">
-        <v>72420</v>
+        <v>74021.06773333333</v>
       </c>
     </row>
     <row r="60">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>20:07:00</t>
+          <t>20:33:41</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>20:31:00</t>
+          <t>20:57:41</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2885,10 +2885,10 @@
         <v>1</v>
       </c>
       <c r="I60" t="n">
-        <v>72420</v>
+        <v>74021.06773333333</v>
       </c>
       <c r="J60" t="n">
-        <v>73860</v>
+        <v>75461.06773333333</v>
       </c>
     </row>
     <row r="61">
@@ -2904,12 +2904,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>20:31:00</t>
+          <t>20:57:41</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>20:35:00</t>
+          <t>21:01:41</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2925,10 +2925,10 @@
         <v>1</v>
       </c>
       <c r="I61" t="n">
-        <v>73860</v>
+        <v>75461.06773333333</v>
       </c>
       <c r="J61" t="n">
-        <v>74100</v>
+        <v>75701.06773333333</v>
       </c>
     </row>
     <row r="62">
@@ -2944,12 +2944,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>20:35:00</t>
+          <t>21:01:41</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:26:41</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2967,10 +2967,10 @@
         <v>1</v>
       </c>
       <c r="I62" t="n">
-        <v>74100</v>
+        <v>75701.06773333333</v>
       </c>
       <c r="J62" t="n">
-        <v>75600</v>
+        <v>77201.06773333333</v>
       </c>
     </row>
     <row r="63">
@@ -2986,12 +2986,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>21:00:00</t>
+          <t>21:26:41</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>21:04:00</t>
+          <t>21:30:41</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3007,10 +3007,10 @@
         <v>1</v>
       </c>
       <c r="I63" t="n">
-        <v>75600</v>
+        <v>77201.06773333333</v>
       </c>
       <c r="J63" t="n">
-        <v>75840</v>
+        <v>77441.06773333333</v>
       </c>
     </row>
     <row r="64">
@@ -3026,12 +3026,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>21:04:00</t>
+          <t>21:30:41</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>21:32:00</t>
+          <t>21:58:41</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3047,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="I64" t="n">
-        <v>75840</v>
+        <v>77441.06773333333</v>
       </c>
       <c r="J64" t="n">
-        <v>77520</v>
+        <v>79121.06773333333</v>
       </c>
     </row>
     <row r="65">
@@ -3066,12 +3066,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>21:32:00</t>
+          <t>21:58:41</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>21:36:00</t>
+          <t>22:02:41</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3087,10 +3087,10 @@
         <v>1</v>
       </c>
       <c r="I65" t="n">
-        <v>77520</v>
+        <v>79121.06773333333</v>
       </c>
       <c r="J65" t="n">
-        <v>77760</v>
+        <v>79361.06773333333</v>
       </c>
     </row>
     <row r="66">
@@ -3106,12 +3106,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>21:36:00</t>
+          <t>22:02:41</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>21:37:00</t>
+          <t>22:03:41</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3127,10 +3127,10 @@
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>77760</v>
+        <v>79361.06773333333</v>
       </c>
       <c r="J66" t="n">
-        <v>77820</v>
+        <v>79421.06773333333</v>
       </c>
     </row>
     <row r="67">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>21:37:00</t>
+          <t>22:03:41</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>22:01:00</t>
+          <t>22:27:41</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3169,10 +3169,10 @@
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>77820</v>
+        <v>79421.06773333333</v>
       </c>
       <c r="J67" t="n">
-        <v>79260</v>
+        <v>80861.06773333333</v>
       </c>
     </row>
     <row r="68">
@@ -3188,12 +3188,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>22:01:00</t>
+          <t>22:27:41</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>22:05:00</t>
+          <t>22:31:41</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3209,10 +3209,10 @@
         <v>1</v>
       </c>
       <c r="I68" t="n">
-        <v>79260</v>
+        <v>80861.06773333333</v>
       </c>
       <c r="J68" t="n">
-        <v>79500</v>
+        <v>81101.06773333333</v>
       </c>
     </row>
     <row r="69">
@@ -3228,12 +3228,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>22:05:00</t>
+          <t>22:31:41</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:56:41</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3251,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>79500</v>
+        <v>81101.06773333333</v>
       </c>
       <c r="J69" t="n">
-        <v>81000</v>
+        <v>82601.06773333333</v>
       </c>
     </row>
     <row r="70">
@@ -3270,12 +3270,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>22:30:00</t>
+          <t>22:56:41</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>22:37:00</t>
+          <t>23:03:41</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3291,10 +3291,10 @@
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>81000</v>
+        <v>82601.06773333333</v>
       </c>
       <c r="J70" t="n">
-        <v>81420</v>
+        <v>83021.06773333333</v>
       </c>
     </row>
     <row r="71">
@@ -3310,12 +3310,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>22:37:00</t>
+          <t>23:03:41</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>23:01:00</t>
+          <t>23:27:41</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3333,10 +3333,10 @@
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>81420</v>
+        <v>83021.06773333333</v>
       </c>
       <c r="J71" t="n">
-        <v>82860</v>
+        <v>84461.06773333333</v>
       </c>
     </row>
     <row r="72">
@@ -3352,12 +3352,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>23:01:00</t>
+          <t>23:27:41</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>23:05:00</t>
+          <t>23:31:41</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -3373,10 +3373,10 @@
         <v>1</v>
       </c>
       <c r="I72" t="n">
-        <v>82860</v>
+        <v>84461.06773333333</v>
       </c>
       <c r="J72" t="n">
-        <v>83100</v>
+        <v>84701.06773333333</v>
       </c>
     </row>
     <row r="73">
@@ -3392,12 +3392,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>23:05:00</t>
+          <t>23:31:41</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:56:41</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3415,10 +3415,10 @@
         <v>1</v>
       </c>
       <c r="I73" t="n">
-        <v>83100</v>
+        <v>84701.06773333333</v>
       </c>
       <c r="J73" t="n">
-        <v>84600</v>
+        <v>86201.06773333333</v>
       </c>
     </row>
     <row r="74">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>23:30:00</t>
+          <t>23:56:41</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>23:37:00</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3455,10 +3455,10 @@
         <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>84600</v>
+        <v>86201.06773333333</v>
       </c>
       <c r="J74" t="n">
-        <v>85020</v>
+        <v>86621.06773333333</v>
       </c>
     </row>
     <row r="75">
@@ -3474,12 +3474,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>23:37:00</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>00:01:00</t>
+          <t>00:27:41</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -3497,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="I75" t="n">
-        <v>85020</v>
+        <v>86621.06773333333</v>
       </c>
       <c r="J75" t="n">
-        <v>86460</v>
+        <v>88061.06773333333</v>
       </c>
     </row>
     <row r="76">
@@ -4536,12 +4536,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>11:11:00</t>
+          <t>11:37:05</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>11:31:00</t>
+          <t>11:57:05</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -4557,10 +4557,10 @@
         <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>40260</v>
+        <v>41825.06773333333</v>
       </c>
       <c r="J101" t="n">
-        <v>41460</v>
+        <v>43025.06773333333</v>
       </c>
     </row>
     <row r="102">
@@ -4576,12 +4576,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>11:31:00</t>
+          <t>11:57:05</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>11:36:00</t>
+          <t>12:02:05</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4597,10 +4597,10 @@
         <v>2</v>
       </c>
       <c r="I102" t="n">
-        <v>41460</v>
+        <v>43025.06773333333</v>
       </c>
       <c r="J102" t="n">
-        <v>41760</v>
+        <v>43325.06773333333</v>
       </c>
     </row>
     <row r="103">
@@ -4616,12 +4616,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>11:36:00</t>
+          <t>12:02:05</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>12:27:05</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -4639,10 +4639,10 @@
         <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>41760</v>
+        <v>43325.06773333333</v>
       </c>
       <c r="J103" t="n">
-        <v>43260</v>
+        <v>44825.06773333333</v>
       </c>
     </row>
     <row r="104">
@@ -4658,12 +4658,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>12:27:05</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>12:21:00</t>
+          <t>12:47:05</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -4679,10 +4679,10 @@
         <v>2</v>
       </c>
       <c r="I104" t="n">
-        <v>43260</v>
+        <v>44825.06773333333</v>
       </c>
       <c r="J104" t="n">
-        <v>44460</v>
+        <v>46025.06773333333</v>
       </c>
     </row>
     <row r="105">
@@ -4698,12 +4698,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>12:21:00</t>
+          <t>12:47:05</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>12:26:00</t>
+          <t>12:52:05</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -4719,10 +4719,10 @@
         <v>2</v>
       </c>
       <c r="I105" t="n">
-        <v>44460</v>
+        <v>46025.06773333333</v>
       </c>
       <c r="J105" t="n">
-        <v>44760</v>
+        <v>46325.06773333333</v>
       </c>
     </row>
     <row r="106">
@@ -4738,12 +4738,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>12:26:00</t>
+          <t>12:52:05</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>12:51:00</t>
+          <t>13:17:05</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4761,10 +4761,10 @@
         <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>44760</v>
+        <v>46325.06773333333</v>
       </c>
       <c r="J106" t="n">
-        <v>46260</v>
+        <v>47825.06773333333</v>
       </c>
     </row>
     <row r="107">
@@ -4780,12 +4780,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>12:51:00</t>
+          <t>13:17:05</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>13:11:00</t>
+          <t>13:37:05</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4801,10 +4801,10 @@
         <v>2</v>
       </c>
       <c r="I107" t="n">
-        <v>46260</v>
+        <v>47825.06773333333</v>
       </c>
       <c r="J107" t="n">
-        <v>47460</v>
+        <v>49025.06773333333</v>
       </c>
     </row>
     <row r="108">
@@ -4820,12 +4820,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>13:11:00</t>
+          <t>13:37:05</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>13:16:00</t>
+          <t>13:42:05</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -4841,10 +4841,10 @@
         <v>2</v>
       </c>
       <c r="I108" t="n">
-        <v>47460</v>
+        <v>49025.06773333333</v>
       </c>
       <c r="J108" t="n">
-        <v>47760</v>
+        <v>49325.06773333333</v>
       </c>
     </row>
     <row r="109">
@@ -4860,12 +4860,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>13:16:00</t>
+          <t>13:42:05</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>14:07:05</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4883,10 +4883,10 @@
         <v>2</v>
       </c>
       <c r="I109" t="n">
-        <v>47760</v>
+        <v>49325.06773333333</v>
       </c>
       <c r="J109" t="n">
-        <v>49260</v>
+        <v>50825.06773333333</v>
       </c>
     </row>
     <row r="110">
@@ -4902,12 +4902,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>14:07:05</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>14:01:00</t>
+          <t>14:27:05</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>49260</v>
+        <v>50825.06773333333</v>
       </c>
       <c r="J110" t="n">
-        <v>50460</v>
+        <v>52025.06773333333</v>
       </c>
     </row>
     <row r="111">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>14:01:00</t>
+          <t>14:27:05</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>14:06:00</t>
+          <t>14:32:05</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4963,10 +4963,10 @@
         <v>2</v>
       </c>
       <c r="I111" t="n">
-        <v>50460</v>
+        <v>52025.06773333333</v>
       </c>
       <c r="J111" t="n">
-        <v>50760</v>
+        <v>52325.06773333333</v>
       </c>
     </row>
     <row r="112">
@@ -4982,12 +4982,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>14:06:00</t>
+          <t>14:32:05</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>14:31:00</t>
+          <t>14:57:05</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -5005,10 +5005,10 @@
         <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>50760</v>
+        <v>52325.06773333333</v>
       </c>
       <c r="J112" t="n">
-        <v>52260</v>
+        <v>53825.06773333333</v>
       </c>
     </row>
     <row r="113">
@@ -5024,12 +5024,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>14:31:00</t>
+          <t>14:57:05</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>15:17:05</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -5045,10 +5045,10 @@
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>52260</v>
+        <v>53825.06773333333</v>
       </c>
       <c r="J113" t="n">
-        <v>53460</v>
+        <v>55025.06773333333</v>
       </c>
     </row>
     <row r="114">
@@ -5064,12 +5064,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>15:17:05</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>14:56:00</t>
+          <t>15:22:05</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5085,10 +5085,10 @@
         <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>53460</v>
+        <v>55025.06773333333</v>
       </c>
       <c r="J114" t="n">
-        <v>53760</v>
+        <v>55325.06773333333</v>
       </c>
     </row>
     <row r="115">
@@ -5104,12 +5104,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>14:56:00</t>
+          <t>15:22:05</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>15:47:05</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5127,10 +5127,10 @@
         <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>53760</v>
+        <v>55325.06773333333</v>
       </c>
       <c r="J115" t="n">
-        <v>55260</v>
+        <v>56825.06773333333</v>
       </c>
     </row>
     <row r="116">
@@ -5146,12 +5146,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>15:47:05</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>15:25:00</t>
+          <t>15:51:05</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5167,10 +5167,10 @@
         <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>55260</v>
+        <v>56825.06773333333</v>
       </c>
       <c r="J116" t="n">
-        <v>55500</v>
+        <v>57065.06773333333</v>
       </c>
     </row>
     <row r="117">
@@ -5186,12 +5186,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>15:25:00</t>
+          <t>15:51:05</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>16:12:05</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -5207,10 +5207,10 @@
         <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>55500</v>
+        <v>57065.06773333333</v>
       </c>
       <c r="J117" t="n">
-        <v>56760</v>
+        <v>58325.06773333333</v>
       </c>
     </row>
     <row r="118">
@@ -5226,12 +5226,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>16:12:05</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>16:06:00</t>
+          <t>16:32:05</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -5247,10 +5247,10 @@
         <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>56760</v>
+        <v>58325.06773333333</v>
       </c>
       <c r="J118" t="n">
-        <v>57960</v>
+        <v>59525.06773333333</v>
       </c>
     </row>
     <row r="119">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>16:06:00</t>
+          <t>16:32:05</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>16:31:00</t>
+          <t>16:57:05</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -5289,10 +5289,10 @@
         <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>57960</v>
+        <v>59525.06773333333</v>
       </c>
       <c r="J119" t="n">
-        <v>59460</v>
+        <v>61025.06773333333</v>
       </c>
     </row>
     <row r="120">
@@ -5308,12 +5308,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>16:31:00</t>
+          <t>16:57:05</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>16:51:00</t>
+          <t>17:17:05</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5329,10 +5329,10 @@
         <v>2</v>
       </c>
       <c r="I120" t="n">
-        <v>59460</v>
+        <v>61025.06773333333</v>
       </c>
       <c r="J120" t="n">
-        <v>60660</v>
+        <v>62225.06773333333</v>
       </c>
     </row>
     <row r="121">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>16:51:00</t>
+          <t>17:17:05</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>16:56:00</t>
+          <t>17:22:05</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5369,10 +5369,10 @@
         <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>60660</v>
+        <v>62225.06773333333</v>
       </c>
       <c r="J121" t="n">
-        <v>60960</v>
+        <v>62525.06773333333</v>
       </c>
     </row>
     <row r="122">
@@ -5388,12 +5388,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>16:56:00</t>
+          <t>17:22:05</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>17:21:00</t>
+          <t>17:47:05</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -5411,10 +5411,10 @@
         <v>2</v>
       </c>
       <c r="I122" t="n">
-        <v>60960</v>
+        <v>62525.06773333333</v>
       </c>
       <c r="J122" t="n">
-        <v>62460</v>
+        <v>64025.06773333333</v>
       </c>
     </row>
     <row r="123">
@@ -5430,12 +5430,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>17:21:00</t>
+          <t>17:47:05</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:11:05</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -5453,10 +5453,10 @@
         <v>2</v>
       </c>
       <c r="I123" t="n">
-        <v>62460</v>
+        <v>64025.06773333333</v>
       </c>
       <c r="J123" t="n">
-        <v>63900</v>
+        <v>65465.06773333333</v>
       </c>
     </row>
     <row r="124">
@@ -5472,12 +5472,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:11:05</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>17:46:00</t>
+          <t>18:12:05</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -5493,10 +5493,10 @@
         <v>2</v>
       </c>
       <c r="I124" t="n">
-        <v>63900</v>
+        <v>65465.06773333333</v>
       </c>
       <c r="J124" t="n">
-        <v>63960</v>
+        <v>65525.06773333333</v>
       </c>
     </row>
     <row r="125">
@@ -5512,12 +5512,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>17:46:00</t>
+          <t>18:12:05</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>18:11:00</t>
+          <t>18:37:05</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -5535,10 +5535,10 @@
         <v>2</v>
       </c>
       <c r="I125" t="n">
-        <v>63960</v>
+        <v>65525.06773333333</v>
       </c>
       <c r="J125" t="n">
-        <v>65460</v>
+        <v>67025.06773333333</v>
       </c>
     </row>
     <row r="126">
@@ -5554,12 +5554,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>18:11:00</t>
+          <t>18:37:05</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>18:14:00</t>
+          <t>18:40:05</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5575,10 +5575,10 @@
         <v>2</v>
       </c>
       <c r="I126" t="n">
-        <v>65460</v>
+        <v>67025.06773333333</v>
       </c>
       <c r="J126" t="n">
-        <v>65640</v>
+        <v>67205.06773333333</v>
       </c>
     </row>
     <row r="127">
@@ -5594,12 +5594,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>18:14:00</t>
+          <t>18:40:05</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>18:38:00</t>
+          <t>19:04:05</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -5617,10 +5617,10 @@
         <v>2</v>
       </c>
       <c r="I127" t="n">
-        <v>65640</v>
+        <v>67205.06773333333</v>
       </c>
       <c r="J127" t="n">
-        <v>67080</v>
+        <v>68645.06773333333</v>
       </c>
     </row>
     <row r="128">
@@ -5636,12 +5636,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>18:38:00</t>
+          <t>19:04:05</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>18:41:00</t>
+          <t>19:07:05</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5657,10 +5657,10 @@
         <v>2</v>
       </c>
       <c r="I128" t="n">
-        <v>67080</v>
+        <v>68645.06773333333</v>
       </c>
       <c r="J128" t="n">
-        <v>67260</v>
+        <v>68825.06773333333</v>
       </c>
     </row>
     <row r="129">
@@ -5676,12 +5676,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>18:41:00</t>
+          <t>19:07:05</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>19:06:00</t>
+          <t>19:32:05</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -5699,10 +5699,10 @@
         <v>2</v>
       </c>
       <c r="I129" t="n">
-        <v>67260</v>
+        <v>68825.06773333333</v>
       </c>
       <c r="J129" t="n">
-        <v>68760</v>
+        <v>70325.06773333333</v>
       </c>
     </row>
     <row r="130">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>19:06:00</t>
+          <t>19:32:05</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>19:26:00</t>
+          <t>19:52:05</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5739,10 +5739,10 @@
         <v>2</v>
       </c>
       <c r="I130" t="n">
-        <v>68760</v>
+        <v>70325.06773333333</v>
       </c>
       <c r="J130" t="n">
-        <v>69960</v>
+        <v>71525.06773333333</v>
       </c>
     </row>
     <row r="131">
@@ -5758,12 +5758,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>19:26:00</t>
+          <t>19:52:05</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>19:51:00</t>
+          <t>20:17:05</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5781,10 +5781,10 @@
         <v>2</v>
       </c>
       <c r="I131" t="n">
-        <v>69960</v>
+        <v>71525.06773333333</v>
       </c>
       <c r="J131" t="n">
-        <v>71460</v>
+        <v>73025.06773333333</v>
       </c>
     </row>
     <row r="132">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>19:51:00</t>
+          <t>20:17:05</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>20:11:00</t>
+          <t>20:37:05</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -5821,10 +5821,10 @@
         <v>2</v>
       </c>
       <c r="I132" t="n">
-        <v>71460</v>
+        <v>73025.06773333333</v>
       </c>
       <c r="J132" t="n">
-        <v>72660</v>
+        <v>74225.06773333333</v>
       </c>
     </row>
     <row r="133">
@@ -5840,12 +5840,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>20:11:00</t>
+          <t>20:37:05</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>20:36:00</t>
+          <t>21:02:05</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5863,10 +5863,10 @@
         <v>2</v>
       </c>
       <c r="I133" t="n">
-        <v>72660</v>
+        <v>74225.06773333333</v>
       </c>
       <c r="J133" t="n">
-        <v>74160</v>
+        <v>75725.06773333333</v>
       </c>
     </row>
     <row r="134">
@@ -5882,12 +5882,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>20:36:00</t>
+          <t>21:02:05</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>20:37:00</t>
+          <t>21:03:05</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5903,10 +5903,10 @@
         <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>74160</v>
+        <v>75725.06773333333</v>
       </c>
       <c r="J134" t="n">
-        <v>74220</v>
+        <v>75785.06773333333</v>
       </c>
     </row>
     <row r="135">
@@ -5922,12 +5922,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>20:37:00</t>
+          <t>21:03:05</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>21:01:00</t>
+          <t>21:27:05</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -5945,10 +5945,10 @@
         <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>74220</v>
+        <v>75785.06773333333</v>
       </c>
       <c r="J135" t="n">
-        <v>75660</v>
+        <v>77225.06773333333</v>
       </c>
     </row>
     <row r="136">
@@ -5964,12 +5964,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>21:01:00</t>
+          <t>21:27:05</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>21:05:00</t>
+          <t>21:31:05</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -5985,10 +5985,10 @@
         <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>75660</v>
+        <v>77225.06773333333</v>
       </c>
       <c r="J136" t="n">
-        <v>75900</v>
+        <v>77465.06773333333</v>
       </c>
     </row>
     <row r="137">
@@ -6004,12 +6004,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>21:05:00</t>
+          <t>21:31:05</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:56:05</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -6027,10 +6027,10 @@
         <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>75900</v>
+        <v>77465.06773333333</v>
       </c>
       <c r="J137" t="n">
-        <v>77400</v>
+        <v>78965.06773333333</v>
       </c>
     </row>
     <row r="138">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:56:05</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>21:34:00</t>
+          <t>22:00:05</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -6067,10 +6067,10 @@
         <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>77400</v>
+        <v>78965.06773333333</v>
       </c>
       <c r="J138" t="n">
-        <v>77640</v>
+        <v>79205.06773333333</v>
       </c>
     </row>
     <row r="139">
@@ -6086,12 +6086,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>21:34:00</t>
+          <t>22:00:05</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>22:02:00</t>
+          <t>22:28:05</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -6107,10 +6107,10 @@
         <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>77640</v>
+        <v>79205.06773333333</v>
       </c>
       <c r="J139" t="n">
-        <v>79320</v>
+        <v>80885.06773333333</v>
       </c>
     </row>
     <row r="140">
@@ -6126,12 +6126,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>22:02:00</t>
+          <t>22:28:05</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>22:32:05</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6147,10 +6147,10 @@
         <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>79320</v>
+        <v>80885.06773333333</v>
       </c>
       <c r="J140" t="n">
-        <v>79560</v>
+        <v>81125.06773333333</v>
       </c>
     </row>
     <row r="141">
@@ -6166,12 +6166,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>22:06:00</t>
+          <t>22:32:05</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>22:07:00</t>
+          <t>22:33:05</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6187,10 +6187,10 @@
         <v>2</v>
       </c>
       <c r="I141" t="n">
-        <v>79560</v>
+        <v>81125.06773333333</v>
       </c>
       <c r="J141" t="n">
-        <v>79620</v>
+        <v>81185.06773333333</v>
       </c>
     </row>
     <row r="142">
@@ -6206,12 +6206,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>22:07:00</t>
+          <t>22:33:05</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>22:31:00</t>
+          <t>22:57:05</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6229,10 +6229,10 @@
         <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>79620</v>
+        <v>81185.06773333333</v>
       </c>
       <c r="J142" t="n">
-        <v>81060</v>
+        <v>82625.06773333333</v>
       </c>
     </row>
     <row r="143">
@@ -6248,12 +6248,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>22:31:00</t>
+          <t>22:57:05</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>22:35:00</t>
+          <t>23:01:05</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6269,10 +6269,10 @@
         <v>2</v>
       </c>
       <c r="I143" t="n">
-        <v>81060</v>
+        <v>82625.06773333333</v>
       </c>
       <c r="J143" t="n">
-        <v>81300</v>
+        <v>82865.06773333333</v>
       </c>
     </row>
     <row r="144">
@@ -6288,12 +6288,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>22:35:00</t>
+          <t>23:01:05</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>23:26:05</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -6311,10 +6311,10 @@
         <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>81300</v>
+        <v>82865.06773333333</v>
       </c>
       <c r="J144" t="n">
-        <v>82800</v>
+        <v>84365.06773333333</v>
       </c>
     </row>
     <row r="145">
@@ -6330,12 +6330,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>23:00:00</t>
+          <t>23:26:05</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>23:07:00</t>
+          <t>23:33:05</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6351,10 +6351,10 @@
         <v>2</v>
       </c>
       <c r="I145" t="n">
-        <v>82800</v>
+        <v>84365.06773333333</v>
       </c>
       <c r="J145" t="n">
-        <v>83220</v>
+        <v>84785.06773333333</v>
       </c>
     </row>
     <row r="146">
@@ -6370,12 +6370,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>23:07:00</t>
+          <t>23:33:05</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>23:31:00</t>
+          <t>23:57:05</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6393,10 +6393,10 @@
         <v>2</v>
       </c>
       <c r="I146" t="n">
-        <v>83220</v>
+        <v>84785.06773333333</v>
       </c>
       <c r="J146" t="n">
-        <v>84660</v>
+        <v>86225.06773333333</v>
       </c>
     </row>
     <row r="147">
@@ -6412,12 +6412,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>23:31:00</t>
+          <t>23:57:05</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>23:35:00</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6433,10 +6433,10 @@
         <v>2</v>
       </c>
       <c r="I147" t="n">
-        <v>84660</v>
+        <v>86225.06773333333</v>
       </c>
       <c r="J147" t="n">
-        <v>84900</v>
+        <v>86465.06773333333</v>
       </c>
     </row>
     <row r="148">
@@ -6452,12 +6452,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>23:35:00</t>
+          <t>00:01:05</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>00:00:00</t>
+          <t>00:26:05</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6475,10 +6475,10 @@
         <v>2</v>
       </c>
       <c r="I148" t="n">
-        <v>84900</v>
+        <v>86465.06773333333</v>
       </c>
       <c r="J148" t="n">
-        <v>86400</v>
+        <v>87965.06773333333</v>
       </c>
     </row>
     <row r="149">
@@ -7394,12 +7394,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>11:41:00</t>
+          <t>12:07:22</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>12:27:22</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7415,10 +7415,10 @@
         <v>3</v>
       </c>
       <c r="I171" t="n">
-        <v>42060</v>
+        <v>43642.98453333334</v>
       </c>
       <c r="J171" t="n">
-        <v>43260</v>
+        <v>44842.98453333334</v>
       </c>
     </row>
     <row r="172">
@@ -7434,12 +7434,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>12:01:00</t>
+          <t>12:27:22</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>12:06:00</t>
+          <t>12:32:22</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -7455,10 +7455,10 @@
         <v>3</v>
       </c>
       <c r="I172" t="n">
-        <v>43260</v>
+        <v>44842.98453333334</v>
       </c>
       <c r="J172" t="n">
-        <v>43560</v>
+        <v>45142.98453333334</v>
       </c>
     </row>
     <row r="173">
@@ -7474,12 +7474,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>12:06:00</t>
+          <t>12:32:22</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>12:31:00</t>
+          <t>12:57:22</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -7497,10 +7497,10 @@
         <v>3</v>
       </c>
       <c r="I173" t="n">
-        <v>43560</v>
+        <v>45142.98453333334</v>
       </c>
       <c r="J173" t="n">
-        <v>45060</v>
+        <v>46642.98453333334</v>
       </c>
     </row>
     <row r="174">
@@ -7516,12 +7516,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>12:31:00</t>
+          <t>12:57:22</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>12:51:00</t>
+          <t>13:17:22</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -7537,10 +7537,10 @@
         <v>3</v>
       </c>
       <c r="I174" t="n">
-        <v>45060</v>
+        <v>46642.98453333334</v>
       </c>
       <c r="J174" t="n">
-        <v>46260</v>
+        <v>47842.98453333334</v>
       </c>
     </row>
     <row r="175">
@@ -7556,12 +7556,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>12:51:00</t>
+          <t>13:17:22</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>12:56:00</t>
+          <t>13:22:22</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -7577,10 +7577,10 @@
         <v>3</v>
       </c>
       <c r="I175" t="n">
-        <v>46260</v>
+        <v>47842.98453333334</v>
       </c>
       <c r="J175" t="n">
-        <v>46560</v>
+        <v>48142.98453333334</v>
       </c>
     </row>
     <row r="176">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>12:56:00</t>
+          <t>13:22:22</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>13:21:00</t>
+          <t>13:47:22</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -7619,10 +7619,10 @@
         <v>3</v>
       </c>
       <c r="I176" t="n">
-        <v>46560</v>
+        <v>48142.98453333334</v>
       </c>
       <c r="J176" t="n">
-        <v>48060</v>
+        <v>49642.98453333334</v>
       </c>
     </row>
     <row r="177">
@@ -7638,12 +7638,12 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>13:21:00</t>
+          <t>13:47:22</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>14:07:22</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
@@ -7659,10 +7659,10 @@
         <v>3</v>
       </c>
       <c r="I177" t="n">
-        <v>48060</v>
+        <v>49642.98453333334</v>
       </c>
       <c r="J177" t="n">
-        <v>49260</v>
+        <v>50842.98453333334</v>
       </c>
     </row>
     <row r="178">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>13:41:00</t>
+          <t>14:07:22</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>13:46:00</t>
+          <t>14:12:22</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -7699,10 +7699,10 @@
         <v>3</v>
       </c>
       <c r="I178" t="n">
-        <v>49260</v>
+        <v>50842.98453333334</v>
       </c>
       <c r="J178" t="n">
-        <v>49560</v>
+        <v>51142.98453333334</v>
       </c>
     </row>
     <row r="179">
@@ -7718,12 +7718,12 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>13:46:00</t>
+          <t>14:12:22</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>14:11:00</t>
+          <t>14:37:22</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -7741,10 +7741,10 @@
         <v>3</v>
       </c>
       <c r="I179" t="n">
-        <v>49560</v>
+        <v>51142.98453333334</v>
       </c>
       <c r="J179" t="n">
-        <v>51060</v>
+        <v>52642.98453333334</v>
       </c>
     </row>
     <row r="180">
@@ -7760,12 +7760,12 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>14:11:00</t>
+          <t>14:37:22</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>14:31:00</t>
+          <t>14:57:22</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -7781,10 +7781,10 @@
         <v>3</v>
       </c>
       <c r="I180" t="n">
-        <v>51060</v>
+        <v>52642.98453333334</v>
       </c>
       <c r="J180" t="n">
-        <v>52260</v>
+        <v>53842.98453333334</v>
       </c>
     </row>
     <row r="181">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>14:31:00</t>
+          <t>14:57:22</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>14:36:00</t>
+          <t>15:02:22</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -7821,10 +7821,10 @@
         <v>3</v>
       </c>
       <c r="I181" t="n">
-        <v>52260</v>
+        <v>53842.98453333334</v>
       </c>
       <c r="J181" t="n">
-        <v>52560</v>
+        <v>54142.98453333334</v>
       </c>
     </row>
     <row r="182">
@@ -7840,12 +7840,12 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>14:36:00</t>
+          <t>15:02:22</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>15:27:22</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -7863,10 +7863,10 @@
         <v>3</v>
       </c>
       <c r="I182" t="n">
-        <v>52560</v>
+        <v>54142.98453333334</v>
       </c>
       <c r="J182" t="n">
-        <v>54060</v>
+        <v>55642.98453333334</v>
       </c>
     </row>
     <row r="183">
@@ -7882,12 +7882,12 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>15:27:22</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>15:47:22</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -7903,10 +7903,10 @@
         <v>3</v>
       </c>
       <c r="I183" t="n">
-        <v>54060</v>
+        <v>55642.98453333334</v>
       </c>
       <c r="J183" t="n">
-        <v>55260</v>
+        <v>56842.98453333334</v>
       </c>
     </row>
     <row r="184">
@@ -7922,12 +7922,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>15:47:22</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>15:26:00</t>
+          <t>15:52:22</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -7943,10 +7943,10 @@
         <v>3</v>
       </c>
       <c r="I184" t="n">
-        <v>55260</v>
+        <v>56842.98453333334</v>
       </c>
       <c r="J184" t="n">
-        <v>55560</v>
+        <v>57142.98453333334</v>
       </c>
     </row>
     <row r="185">
@@ -7962,12 +7962,12 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>15:26:00</t>
+          <t>15:52:22</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:17:22</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -7985,10 +7985,10 @@
         <v>3</v>
       </c>
       <c r="I185" t="n">
-        <v>55560</v>
+        <v>57142.98453333334</v>
       </c>
       <c r="J185" t="n">
-        <v>57060</v>
+        <v>58642.98453333334</v>
       </c>
     </row>
     <row r="186">
@@ -8004,12 +8004,12 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:17:22</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>15:55:00</t>
+          <t>16:21:22</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -8025,10 +8025,10 @@
         <v>3</v>
       </c>
       <c r="I186" t="n">
-        <v>57060</v>
+        <v>58642.98453333334</v>
       </c>
       <c r="J186" t="n">
-        <v>57300</v>
+        <v>58882.98453333334</v>
       </c>
     </row>
     <row r="187">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>15:55:00</t>
+          <t>16:21:22</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>16:16:00</t>
+          <t>16:42:22</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -8065,10 +8065,10 @@
         <v>3</v>
       </c>
       <c r="I187" t="n">
-        <v>57300</v>
+        <v>58882.98453333334</v>
       </c>
       <c r="J187" t="n">
-        <v>58560</v>
+        <v>60142.98453333334</v>
       </c>
     </row>
     <row r="188">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>16:16:00</t>
+          <t>16:42:22</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>16:36:00</t>
+          <t>17:02:22</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
@@ -8105,10 +8105,10 @@
         <v>3</v>
       </c>
       <c r="I188" t="n">
-        <v>58560</v>
+        <v>60142.98453333334</v>
       </c>
       <c r="J188" t="n">
-        <v>59760</v>
+        <v>61342.98453333334</v>
       </c>
     </row>
     <row r="189">
@@ -8124,12 +8124,12 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>16:36:00</t>
+          <t>17:02:22</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>17:01:00</t>
+          <t>17:27:22</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8147,10 +8147,10 @@
         <v>3</v>
       </c>
       <c r="I189" t="n">
-        <v>59760</v>
+        <v>61342.98453333334</v>
       </c>
       <c r="J189" t="n">
-        <v>61260</v>
+        <v>62842.98453333334</v>
       </c>
     </row>
     <row r="190">
@@ -8166,12 +8166,12 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>17:01:00</t>
+          <t>17:27:22</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>17:21:00</t>
+          <t>17:47:22</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
@@ -8187,10 +8187,10 @@
         <v>3</v>
       </c>
       <c r="I190" t="n">
-        <v>61260</v>
+        <v>62842.98453333334</v>
       </c>
       <c r="J190" t="n">
-        <v>62460</v>
+        <v>64042.98453333334</v>
       </c>
     </row>
     <row r="191">
@@ -8206,12 +8206,12 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>17:21:00</t>
+          <t>17:47:22</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>17:26:00</t>
+          <t>17:52:22</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
@@ -8227,10 +8227,10 @@
         <v>3</v>
       </c>
       <c r="I191" t="n">
-        <v>62460</v>
+        <v>64042.98453333334</v>
       </c>
       <c r="J191" t="n">
-        <v>62760</v>
+        <v>64342.98453333334</v>
       </c>
     </row>
     <row r="192">
@@ -8246,12 +8246,12 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>17:26:00</t>
+          <t>17:52:22</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>18:17:22</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -8269,10 +8269,10 @@
         <v>3</v>
       </c>
       <c r="I192" t="n">
-        <v>62760</v>
+        <v>64342.98453333334</v>
       </c>
       <c r="J192" t="n">
-        <v>64260</v>
+        <v>65842.98453333334</v>
       </c>
     </row>
     <row r="193">
@@ -8288,12 +8288,12 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>18:17:22</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>18:41:22</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
@@ -8311,10 +8311,10 @@
         <v>3</v>
       </c>
       <c r="I193" t="n">
-        <v>64260</v>
+        <v>65842.98453333334</v>
       </c>
       <c r="J193" t="n">
-        <v>65700</v>
+        <v>67282.98453333334</v>
       </c>
     </row>
     <row r="194">
@@ -8330,12 +8330,12 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>18:15:00</t>
+          <t>18:41:22</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>18:16:00</t>
+          <t>18:42:22</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
@@ -8351,10 +8351,10 @@
         <v>3</v>
       </c>
       <c r="I194" t="n">
-        <v>65700</v>
+        <v>67282.98453333334</v>
       </c>
       <c r="J194" t="n">
-        <v>65760</v>
+        <v>67342.98453333334</v>
       </c>
     </row>
     <row r="195">
@@ -8370,12 +8370,12 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>18:16:00</t>
+          <t>18:42:22</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>18:41:00</t>
+          <t>19:07:22</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -8393,10 +8393,10 @@
         <v>3</v>
       </c>
       <c r="I195" t="n">
-        <v>65760</v>
+        <v>67342.98453333334</v>
       </c>
       <c r="J195" t="n">
-        <v>67260</v>
+        <v>68842.98453333334</v>
       </c>
     </row>
     <row r="196">
@@ -8412,12 +8412,12 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>18:41:00</t>
+          <t>19:07:22</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>18:44:00</t>
+          <t>19:10:22</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
@@ -8433,10 +8433,10 @@
         <v>3</v>
       </c>
       <c r="I196" t="n">
-        <v>67260</v>
+        <v>68842.98453333334</v>
       </c>
       <c r="J196" t="n">
-        <v>67440</v>
+        <v>69022.98453333334</v>
       </c>
     </row>
     <row r="197">
@@ -8452,12 +8452,12 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>18:44:00</t>
+          <t>19:10:22</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>19:08:00</t>
+          <t>19:34:22</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
@@ -8475,10 +8475,10 @@
         <v>3</v>
       </c>
       <c r="I197" t="n">
-        <v>67440</v>
+        <v>69022.98453333334</v>
       </c>
       <c r="J197" t="n">
-        <v>68880</v>
+        <v>70462.98453333334</v>
       </c>
     </row>
     <row r="198">
@@ -8494,12 +8494,12 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>19:08:00</t>
+          <t>19:34:22</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>19:11:00</t>
+          <t>19:37:22</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -8515,10 +8515,10 @@
         <v>3</v>
       </c>
       <c r="I198" t="n">
-        <v>68880</v>
+        <v>70462.98453333334</v>
       </c>
       <c r="J198" t="n">
-        <v>69060</v>
+        <v>70642.98453333334</v>
       </c>
     </row>
     <row r="199">
@@ -8534,12 +8534,12 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>19:11:00</t>
+          <t>19:37:22</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>19:36:00</t>
+          <t>20:02:22</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
@@ -8557,10 +8557,10 @@
         <v>3</v>
       </c>
       <c r="I199" t="n">
-        <v>69060</v>
+        <v>70642.98453333334</v>
       </c>
       <c r="J199" t="n">
-        <v>70560</v>
+        <v>72142.98453333334</v>
       </c>
     </row>
     <row r="200">
@@ -8576,12 +8576,12 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>19:36:00</t>
+          <t>20:02:22</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>19:56:00</t>
+          <t>20:22:22</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
@@ -8597,10 +8597,10 @@
         <v>3</v>
       </c>
       <c r="I200" t="n">
-        <v>70560</v>
+        <v>72142.98453333334</v>
       </c>
       <c r="J200" t="n">
-        <v>71760</v>
+        <v>73342.98453333334</v>
       </c>
     </row>
     <row r="201">
@@ -8616,12 +8616,12 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>19:56:00</t>
+          <t>20:22:22</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>20:21:00</t>
+          <t>20:47:22</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
@@ -8639,10 +8639,10 @@
         <v>3</v>
       </c>
       <c r="I201" t="n">
-        <v>71760</v>
+        <v>73342.98453333334</v>
       </c>
       <c r="J201" t="n">
-        <v>73260</v>
+        <v>74842.98453333334</v>
       </c>
     </row>
     <row r="202">
@@ -8658,12 +8658,12 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>20:21:00</t>
+          <t>20:47:22</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>20:22:00</t>
+          <t>20:48:22</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -8679,10 +8679,10 @@
         <v>3</v>
       </c>
       <c r="I202" t="n">
-        <v>73260</v>
+        <v>74842.98453333334</v>
       </c>
       <c r="J202" t="n">
-        <v>73320</v>
+        <v>74902.98453333334</v>
       </c>
     </row>
     <row r="203">
@@ -8698,12 +8698,12 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>20:22:00</t>
+          <t>20:48:22</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>20:46:00</t>
+          <t>21:12:22</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -8721,10 +8721,10 @@
         <v>3</v>
       </c>
       <c r="I203" t="n">
-        <v>73320</v>
+        <v>74902.98453333334</v>
       </c>
       <c r="J203" t="n">
-        <v>74760</v>
+        <v>76342.98453333334</v>
       </c>
     </row>
     <row r="204">
@@ -8740,12 +8740,12 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>20:46:00</t>
+          <t>21:12:22</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>21:10:00</t>
+          <t>21:36:22</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -8763,10 +8763,10 @@
         <v>3</v>
       </c>
       <c r="I204" t="n">
-        <v>74760</v>
+        <v>76342.98453333334</v>
       </c>
       <c r="J204" t="n">
-        <v>76200</v>
+        <v>77782.98453333334</v>
       </c>
     </row>
     <row r="205">
@@ -8782,12 +8782,12 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>21:10:00</t>
+          <t>21:36:22</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:56:22</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -8803,10 +8803,10 @@
         <v>3</v>
       </c>
       <c r="I205" t="n">
-        <v>76200</v>
+        <v>77782.98453333334</v>
       </c>
       <c r="J205" t="n">
-        <v>77400</v>
+        <v>78982.98453333334</v>
       </c>
     </row>
     <row r="206">
@@ -8822,12 +8822,12 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>21:30:00</t>
+          <t>21:56:22</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>22:01:22</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
@@ -8843,10 +8843,10 @@
         <v>3</v>
       </c>
       <c r="I206" t="n">
-        <v>77400</v>
+        <v>78982.98453333334</v>
       </c>
       <c r="J206" t="n">
-        <v>77700</v>
+        <v>79282.98453333334</v>
       </c>
     </row>
     <row r="207">
@@ -8862,12 +8862,12 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>21:35:00</t>
+          <t>22:01:22</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:26:22</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -8885,10 +8885,10 @@
         <v>3</v>
       </c>
       <c r="I207" t="n">
-        <v>77700</v>
+        <v>79282.98453333334</v>
       </c>
       <c r="J207" t="n">
-        <v>79200</v>
+        <v>80782.98453333334</v>
       </c>
     </row>
     <row r="208">
@@ -8904,12 +8904,12 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>22:00:00</t>
+          <t>22:26:22</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>22:04:00</t>
+          <t>22:30:22</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
@@ -8925,10 +8925,10 @@
         <v>3</v>
       </c>
       <c r="I208" t="n">
-        <v>79200</v>
+        <v>80782.98453333334</v>
       </c>
       <c r="J208" t="n">
-        <v>79440</v>
+        <v>81022.98453333334</v>
       </c>
     </row>
     <row r="209">
@@ -8944,12 +8944,12 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>22:04:00</t>
+          <t>22:30:22</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>22:33:00</t>
+          <t>22:59:22</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
@@ -8965,10 +8965,10 @@
         <v>3</v>
       </c>
       <c r="I209" t="n">
-        <v>79440</v>
+        <v>81022.98453333334</v>
       </c>
       <c r="J209" t="n">
-        <v>81180</v>
+        <v>82762.98453333334</v>
       </c>
     </row>
     <row r="210">
@@ -8984,12 +8984,12 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>22:33:00</t>
+          <t>22:59:22</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>22:37:00</t>
+          <t>23:03:22</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
@@ -9005,10 +9005,10 @@
         <v>3</v>
       </c>
       <c r="I210" t="n">
-        <v>81180</v>
+        <v>82762.98453333334</v>
       </c>
       <c r="J210" t="n">
-        <v>81420</v>
+        <v>83002.98453333334</v>
       </c>
     </row>
     <row r="211">
@@ -10086,12 +10086,12 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>13:51:00</t>
+          <t>14:16:52</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>14:11:00</t>
+          <t>14:36:52</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -10107,10 +10107,10 @@
         <v>4</v>
       </c>
       <c r="I237" t="n">
-        <v>49860</v>
+        <v>51412.36906666667</v>
       </c>
       <c r="J237" t="n">
-        <v>51060</v>
+        <v>52612.36906666667</v>
       </c>
     </row>
     <row r="238">
@@ -10126,12 +10126,12 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>14:11:00</t>
+          <t>14:36:52</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>14:16:00</t>
+          <t>14:41:52</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -10147,10 +10147,10 @@
         <v>4</v>
       </c>
       <c r="I238" t="n">
-        <v>51060</v>
+        <v>52612.36906666667</v>
       </c>
       <c r="J238" t="n">
-        <v>51360</v>
+        <v>52912.36906666667</v>
       </c>
     </row>
     <row r="239">
@@ -10166,12 +10166,12 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>14:16:00</t>
+          <t>14:41:52</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>14:41:00</t>
+          <t>15:06:52</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
@@ -10189,10 +10189,10 @@
         <v>4</v>
       </c>
       <c r="I239" t="n">
-        <v>51360</v>
+        <v>52912.36906666667</v>
       </c>
       <c r="J239" t="n">
-        <v>52860</v>
+        <v>54412.36906666667</v>
       </c>
     </row>
     <row r="240">
@@ -10208,12 +10208,12 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>14:41:00</t>
+          <t>15:06:52</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>15:26:52</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
@@ -10229,10 +10229,10 @@
         <v>4</v>
       </c>
       <c r="I240" t="n">
-        <v>52860</v>
+        <v>54412.36906666667</v>
       </c>
       <c r="J240" t="n">
-        <v>54060</v>
+        <v>55612.36906666667</v>
       </c>
     </row>
     <row r="241">
@@ -10248,12 +10248,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>15:01:00</t>
+          <t>15:26:52</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>15:31:52</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
@@ -10269,10 +10269,10 @@
         <v>4</v>
       </c>
       <c r="I241" t="n">
-        <v>54060</v>
+        <v>55612.36906666667</v>
       </c>
       <c r="J241" t="n">
-        <v>54360</v>
+        <v>55912.36906666667</v>
       </c>
     </row>
     <row r="242">
@@ -10288,12 +10288,12 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>15:06:00</t>
+          <t>15:31:52</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>15:31:00</t>
+          <t>15:56:52</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
@@ -10311,10 +10311,10 @@
         <v>4</v>
       </c>
       <c r="I242" t="n">
-        <v>54360</v>
+        <v>55912.36906666667</v>
       </c>
       <c r="J242" t="n">
-        <v>55860</v>
+        <v>57412.36906666667</v>
       </c>
     </row>
     <row r="243">
@@ -10330,12 +10330,12 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>15:31:00</t>
+          <t>15:56:52</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:16:52</t>
         </is>
       </c>
       <c r="E243" t="inlineStr">
@@ -10351,10 +10351,10 @@
         <v>4</v>
       </c>
       <c r="I243" t="n">
-        <v>55860</v>
+        <v>57412.36906666667</v>
       </c>
       <c r="J243" t="n">
-        <v>57060</v>
+        <v>58612.36906666667</v>
       </c>
     </row>
     <row r="244">
@@ -10370,12 +10370,12 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:16:52</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>15:56:00</t>
+          <t>16:21:52</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">
@@ -10391,10 +10391,10 @@
         <v>4</v>
       </c>
       <c r="I244" t="n">
-        <v>57060</v>
+        <v>58612.36906666667</v>
       </c>
       <c r="J244" t="n">
-        <v>57360</v>
+        <v>58912.36906666667</v>
       </c>
     </row>
     <row r="245">
@@ -10410,12 +10410,12 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>15:56:00</t>
+          <t>16:21:52</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>16:21:00</t>
+          <t>16:46:52</t>
         </is>
       </c>
       <c r="E245" t="inlineStr">
@@ -10433,10 +10433,10 @@
         <v>4</v>
       </c>
       <c r="I245" t="n">
-        <v>57360</v>
+        <v>58912.36906666667</v>
       </c>
       <c r="J245" t="n">
-        <v>58860</v>
+        <v>60412.36906666667</v>
       </c>
     </row>
     <row r="246">
@@ -10452,12 +10452,12 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>16:21:00</t>
+          <t>16:46:52</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>16:50:52</t>
         </is>
       </c>
       <c r="E246" t="inlineStr">
@@ -10473,10 +10473,10 @@
         <v>4</v>
       </c>
       <c r="I246" t="n">
-        <v>58860</v>
+        <v>60412.36906666667</v>
       </c>
       <c r="J246" t="n">
-        <v>59100</v>
+        <v>60652.36906666667</v>
       </c>
     </row>
     <row r="247">
@@ -10492,12 +10492,12 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>16:25:00</t>
+          <t>16:50:52</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>16:46:00</t>
+          <t>17:11:52</t>
         </is>
       </c>
       <c r="E247" t="inlineStr">
@@ -10513,10 +10513,10 @@
         <v>4</v>
       </c>
       <c r="I247" t="n">
-        <v>59100</v>
+        <v>60652.36906666667</v>
       </c>
       <c r="J247" t="n">
-        <v>60360</v>
+        <v>61912.36906666667</v>
       </c>
     </row>
     <row r="248">
@@ -10532,12 +10532,12 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>16:46:00</t>
+          <t>17:11:52</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>17:06:00</t>
+          <t>17:31:52</t>
         </is>
       </c>
       <c r="E248" t="inlineStr">
@@ -10553,10 +10553,10 @@
         <v>4</v>
       </c>
       <c r="I248" t="n">
-        <v>60360</v>
+        <v>61912.36906666667</v>
       </c>
       <c r="J248" t="n">
-        <v>61560</v>
+        <v>63112.36906666667</v>
       </c>
     </row>
     <row r="249">
@@ -10572,12 +10572,12 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>17:06:00</t>
+          <t>17:31:52</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>17:31:00</t>
+          <t>17:56:52</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
@@ -10595,10 +10595,10 @@
         <v>4</v>
       </c>
       <c r="I249" t="n">
-        <v>61560</v>
+        <v>63112.36906666667</v>
       </c>
       <c r="J249" t="n">
-        <v>63060</v>
+        <v>64612.36906666667</v>
       </c>
     </row>
     <row r="250">
@@ -10614,12 +10614,12 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>17:31:00</t>
+          <t>17:56:52</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>18:16:52</t>
         </is>
       </c>
       <c r="E250" t="inlineStr">
@@ -10635,10 +10635,10 @@
         <v>4</v>
       </c>
       <c r="I250" t="n">
-        <v>63060</v>
+        <v>64612.36906666667</v>
       </c>
       <c r="J250" t="n">
-        <v>64260</v>
+        <v>65812.36906666667</v>
       </c>
     </row>
     <row r="251">
@@ -10654,12 +10654,12 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>18:16:52</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>17:56:00</t>
+          <t>18:21:52</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
@@ -10675,10 +10675,10 @@
         <v>4</v>
       </c>
       <c r="I251" t="n">
-        <v>64260</v>
+        <v>65812.36906666667</v>
       </c>
       <c r="J251" t="n">
-        <v>64560</v>
+        <v>66112.36906666667</v>
       </c>
     </row>
     <row r="252">
@@ -10694,12 +10694,12 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>17:56:00</t>
+          <t>18:21:52</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>18:21:00</t>
+          <t>18:46:52</t>
         </is>
       </c>
       <c r="E252" t="inlineStr">
@@ -10717,10 +10717,10 @@
         <v>4</v>
       </c>
       <c r="I252" t="n">
-        <v>64560</v>
+        <v>66112.36906666667</v>
       </c>
       <c r="J252" t="n">
-        <v>66060</v>
+        <v>67612.36906666667</v>
       </c>
     </row>
     <row r="253">
@@ -10736,12 +10736,12 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>18:21:00</t>
+          <t>18:46:52</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>18:22:00</t>
+          <t>18:47:52</t>
         </is>
       </c>
       <c r="E253" t="inlineStr">
@@ -10757,10 +10757,10 @@
         <v>4</v>
       </c>
       <c r="I253" t="n">
-        <v>66060</v>
+        <v>67612.36906666667</v>
       </c>
       <c r="J253" t="n">
-        <v>66120</v>
+        <v>67672.36906666667</v>
       </c>
     </row>
     <row r="254">
@@ -10776,12 +10776,12 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>18:22:00</t>
+          <t>18:47:52</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>18:46:00</t>
+          <t>19:11:52</t>
         </is>
       </c>
       <c r="E254" t="inlineStr">
@@ -10799,10 +10799,10 @@
         <v>4</v>
       </c>
       <c r="I254" t="n">
-        <v>66120</v>
+        <v>67672.36906666667</v>
       </c>
       <c r="J254" t="n">
-        <v>67560</v>
+        <v>69112.36906666667</v>
       </c>
     </row>
     <row r="255">
@@ -10818,12 +10818,12 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>18:46:00</t>
+          <t>19:11:52</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>18:49:00</t>
+          <t>19:14:52</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
@@ -10839,10 +10839,10 @@
         <v>4</v>
       </c>
       <c r="I255" t="n">
-        <v>67560</v>
+        <v>69112.36906666667</v>
       </c>
       <c r="J255" t="n">
-        <v>67740</v>
+        <v>69292.36906666667</v>
       </c>
     </row>
     <row r="256">
@@ -10858,12 +10858,12 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>18:49:00</t>
+          <t>19:14:52</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>19:13:00</t>
+          <t>19:38:52</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
@@ -10881,10 +10881,10 @@
         <v>4</v>
       </c>
       <c r="I256" t="n">
-        <v>67740</v>
+        <v>69292.36906666667</v>
       </c>
       <c r="J256" t="n">
-        <v>69180</v>
+        <v>70732.36906666667</v>
       </c>
     </row>
     <row r="257">
@@ -10900,12 +10900,12 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>19:13:00</t>
+          <t>19:38:52</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>19:58:52</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
@@ -10921,10 +10921,10 @@
         <v>4</v>
       </c>
       <c r="I257" t="n">
-        <v>69180</v>
+        <v>70732.36906666667</v>
       </c>
       <c r="J257" t="n">
-        <v>70380</v>
+        <v>71932.36906666667</v>
       </c>
     </row>
     <row r="258">
@@ -10940,12 +10940,12 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>19:33:00</t>
+          <t>19:58:52</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>19:34:00</t>
+          <t>19:59:52</t>
         </is>
       </c>
       <c r="E258" t="inlineStr">
@@ -10961,10 +10961,10 @@
         <v>4</v>
       </c>
       <c r="I258" t="n">
-        <v>70380</v>
+        <v>71932.36906666667</v>
       </c>
       <c r="J258" t="n">
-        <v>70440</v>
+        <v>71992.36906666667</v>
       </c>
     </row>
     <row r="259">
@@ -10980,12 +10980,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>19:34:00</t>
+          <t>19:59:52</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>19:58:00</t>
+          <t>20:23:52</t>
         </is>
       </c>
       <c r="E259" t="inlineStr">
@@ -11003,10 +11003,10 @@
         <v>4</v>
       </c>
       <c r="I259" t="n">
-        <v>70440</v>
+        <v>71992.36906666667</v>
       </c>
       <c r="J259" t="n">
-        <v>71880</v>
+        <v>73432.36906666667</v>
       </c>
     </row>
     <row r="260">
@@ -11022,12 +11022,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>19:58:00</t>
+          <t>20:23:52</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>20:02:00</t>
+          <t>20:27:52</t>
         </is>
       </c>
       <c r="E260" t="inlineStr">
@@ -11043,10 +11043,10 @@
         <v>4</v>
       </c>
       <c r="I260" t="n">
-        <v>71880</v>
+        <v>73432.36906666667</v>
       </c>
       <c r="J260" t="n">
-        <v>72120</v>
+        <v>73672.36906666667</v>
       </c>
     </row>
     <row r="261">
@@ -11062,12 +11062,12 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>20:02:00</t>
+          <t>20:27:52</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>20:22:00</t>
+          <t>20:47:52</t>
         </is>
       </c>
       <c r="E261" t="inlineStr">
@@ -11083,10 +11083,10 @@
         <v>4</v>
       </c>
       <c r="I261" t="n">
-        <v>72120</v>
+        <v>73672.36906666667</v>
       </c>
       <c r="J261" t="n">
-        <v>73320</v>
+        <v>74872.36906666667</v>
       </c>
     </row>
     <row r="262">
@@ -11102,12 +11102,12 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>20:22:00</t>
+          <t>20:47:52</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>20:26:00</t>
+          <t>20:51:52</t>
         </is>
       </c>
       <c r="E262" t="inlineStr">
@@ -11123,10 +11123,10 @@
         <v>4</v>
       </c>
       <c r="I262" t="n">
-        <v>73320</v>
+        <v>74872.36906666667</v>
       </c>
       <c r="J262" t="n">
-        <v>73560</v>
+        <v>75112.36906666667</v>
       </c>
     </row>
     <row r="263">
@@ -11142,12 +11142,12 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>20:26:00</t>
+          <t>20:51:52</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>21:07:00</t>
+          <t>21:32:52</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
@@ -11163,10 +11163,10 @@
         <v>4</v>
       </c>
       <c r="I263" t="n">
-        <v>73560</v>
+        <v>75112.36906666667</v>
       </c>
       <c r="J263" t="n">
-        <v>76020</v>
+        <v>77572.36906666667</v>
       </c>
     </row>
     <row r="264">
@@ -11182,12 +11182,12 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>21:07:00</t>
+          <t>21:32:52</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>21:31:00</t>
+          <t>21:56:52</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
@@ -11205,10 +11205,10 @@
         <v>4</v>
       </c>
       <c r="I264" t="n">
-        <v>76020</v>
+        <v>77572.36906666667</v>
       </c>
       <c r="J264" t="n">
-        <v>77460</v>
+        <v>79012.36906666667</v>
       </c>
     </row>
     <row r="265">
@@ -11224,12 +11224,12 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>21:31:00</t>
+          <t>21:56:52</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>21:51:00</t>
+          <t>22:16:52</t>
         </is>
       </c>
       <c r="E265" t="inlineStr">
@@ -11245,10 +11245,10 @@
         <v>4</v>
       </c>
       <c r="I265" t="n">
-        <v>77460</v>
+        <v>79012.36906666667</v>
       </c>
       <c r="J265" t="n">
-        <v>78660</v>
+        <v>80212.36906666667</v>
       </c>
     </row>
     <row r="266">
@@ -12404,12 +12404,12 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>14:46:00</t>
+          <t>15:12:21</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>15:11:00</t>
+          <t>15:37:21</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
@@ -12427,10 +12427,10 @@
         <v>5</v>
       </c>
       <c r="I294" t="n">
-        <v>53160</v>
+        <v>54741.35893333334</v>
       </c>
       <c r="J294" t="n">
-        <v>54660</v>
+        <v>56241.35893333334</v>
       </c>
     </row>
     <row r="295">
@@ -12446,12 +12446,12 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>15:11:00</t>
+          <t>15:37:21</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>15:19:00</t>
+          <t>15:45:21</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
@@ -12467,10 +12467,10 @@
         <v>5</v>
       </c>
       <c r="I295" t="n">
-        <v>54660</v>
+        <v>56241.35893333334</v>
       </c>
       <c r="J295" t="n">
-        <v>55140</v>
+        <v>56721.35893333334</v>
       </c>
     </row>
     <row r="296">
@@ -12486,12 +12486,12 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>15:19:00</t>
+          <t>15:45:21</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>15:43:00</t>
+          <t>16:09:21</t>
         </is>
       </c>
       <c r="E296" t="inlineStr">
@@ -12509,10 +12509,10 @@
         <v>5</v>
       </c>
       <c r="I296" t="n">
-        <v>55140</v>
+        <v>56721.35893333334</v>
       </c>
       <c r="J296" t="n">
-        <v>56580</v>
+        <v>58161.35893333334</v>
       </c>
     </row>
     <row r="297">
@@ -12528,12 +12528,12 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>15:43:00</t>
+          <t>16:09:21</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>16:12:21</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
@@ -12549,10 +12549,10 @@
         <v>5</v>
       </c>
       <c r="I297" t="n">
-        <v>56580</v>
+        <v>58161.35893333334</v>
       </c>
       <c r="J297" t="n">
-        <v>56760</v>
+        <v>58341.35893333334</v>
       </c>
     </row>
     <row r="298">
@@ -12568,12 +12568,12 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>15:46:00</t>
+          <t>16:12:21</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>16:11:00</t>
+          <t>16:37:21</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -12591,10 +12591,10 @@
         <v>5</v>
       </c>
       <c r="I298" t="n">
-        <v>56760</v>
+        <v>58341.35893333334</v>
       </c>
       <c r="J298" t="n">
-        <v>58260</v>
+        <v>59841.35893333334</v>
       </c>
     </row>
     <row r="299">
@@ -12610,12 +12610,12 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>16:11:00</t>
+          <t>16:37:21</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>16:19:00</t>
+          <t>16:45:21</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
@@ -12631,10 +12631,10 @@
         <v>5</v>
       </c>
       <c r="I299" t="n">
-        <v>58260</v>
+        <v>59841.35893333334</v>
       </c>
       <c r="J299" t="n">
-        <v>58740</v>
+        <v>60321.35893333334</v>
       </c>
     </row>
     <row r="300">
@@ -12650,12 +12650,12 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>16:19:00</t>
+          <t>16:45:21</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>17:09:21</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -12673,10 +12673,10 @@
         <v>5</v>
       </c>
       <c r="I300" t="n">
-        <v>58740</v>
+        <v>60321.35893333334</v>
       </c>
       <c r="J300" t="n">
-        <v>60180</v>
+        <v>61761.35893333334</v>
       </c>
     </row>
     <row r="301">
@@ -12692,12 +12692,12 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>17:09:21</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>16:46:00</t>
+          <t>17:12:21</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -12713,10 +12713,10 @@
         <v>5</v>
       </c>
       <c r="I301" t="n">
-        <v>60180</v>
+        <v>61761.35893333334</v>
       </c>
       <c r="J301" t="n">
-        <v>60360</v>
+        <v>61941.35893333334</v>
       </c>
     </row>
     <row r="302">
@@ -12732,12 +12732,12 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>16:46:00</t>
+          <t>17:12:21</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>17:11:00</t>
+          <t>17:37:21</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
@@ -12755,10 +12755,10 @@
         <v>5</v>
       </c>
       <c r="I302" t="n">
-        <v>60360</v>
+        <v>61941.35893333334</v>
       </c>
       <c r="J302" t="n">
-        <v>61860</v>
+        <v>63441.35893333334</v>
       </c>
     </row>
     <row r="303">
@@ -12774,12 +12774,12 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>17:11:00</t>
+          <t>17:37:21</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:41:21</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
@@ -12795,10 +12795,10 @@
         <v>5</v>
       </c>
       <c r="I303" t="n">
-        <v>61860</v>
+        <v>63441.35893333334</v>
       </c>
       <c r="J303" t="n">
-        <v>62100</v>
+        <v>63681.35893333334</v>
       </c>
     </row>
     <row r="304">
@@ -12814,12 +12814,12 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:41:21</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>17:35:00</t>
+          <t>18:01:21</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
@@ -12835,10 +12835,10 @@
         <v>5</v>
       </c>
       <c r="I304" t="n">
-        <v>62100</v>
+        <v>63681.35893333334</v>
       </c>
       <c r="J304" t="n">
-        <v>63300</v>
+        <v>64881.35893333334</v>
       </c>
     </row>
     <row r="305">
@@ -12854,12 +12854,12 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>17:35:00</t>
+          <t>18:01:21</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>17:39:00</t>
+          <t>18:05:21</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
@@ -12875,10 +12875,10 @@
         <v>5</v>
       </c>
       <c r="I305" t="n">
-        <v>63300</v>
+        <v>64881.35893333334</v>
       </c>
       <c r="J305" t="n">
-        <v>63540</v>
+        <v>65121.35893333334</v>
       </c>
     </row>
     <row r="306">
@@ -12894,12 +12894,12 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>17:39:00</t>
+          <t>18:05:21</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>18:29:21</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
@@ -12917,10 +12917,10 @@
         <v>5</v>
       </c>
       <c r="I306" t="n">
-        <v>63540</v>
+        <v>65121.35893333334</v>
       </c>
       <c r="J306" t="n">
-        <v>64980</v>
+        <v>66561.35893333334</v>
       </c>
     </row>
     <row r="307">
@@ -12936,12 +12936,12 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>18:29:21</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>18:26:00</t>
+          <t>18:52:21</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
@@ -12957,10 +12957,10 @@
         <v>5</v>
       </c>
       <c r="I307" t="n">
-        <v>64980</v>
+        <v>66561.35893333334</v>
       </c>
       <c r="J307" t="n">
-        <v>66360</v>
+        <v>67941.35893333334</v>
       </c>
     </row>
     <row r="308">
@@ -12976,12 +12976,12 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>18:26:00</t>
+          <t>18:52:21</t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>18:51:00</t>
+          <t>19:17:21</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -12999,10 +12999,10 @@
         <v>5</v>
       </c>
       <c r="I308" t="n">
-        <v>66360</v>
+        <v>67941.35893333334</v>
       </c>
       <c r="J308" t="n">
-        <v>67860</v>
+        <v>69441.35893333334</v>
       </c>
     </row>
     <row r="309">
@@ -13018,12 +13018,12 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>18:51:00</t>
+          <t>19:17:21</t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>18:52:00</t>
+          <t>19:18:21</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -13039,10 +13039,10 @@
         <v>5</v>
       </c>
       <c r="I309" t="n">
-        <v>67860</v>
+        <v>69441.35893333334</v>
       </c>
       <c r="J309" t="n">
-        <v>67920</v>
+        <v>69501.35893333334</v>
       </c>
     </row>
     <row r="310">
@@ -13058,12 +13058,12 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>18:52:00</t>
+          <t>19:18:21</t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>19:16:00</t>
+          <t>19:42:21</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
@@ -13081,10 +13081,10 @@
         <v>5</v>
       </c>
       <c r="I310" t="n">
-        <v>67920</v>
+        <v>69501.35893333334</v>
       </c>
       <c r="J310" t="n">
-        <v>69360</v>
+        <v>70941.35893333334</v>
       </c>
     </row>
     <row r="311">
@@ -13100,12 +13100,12 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>19:16:00</t>
+          <t>19:42:21</t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>19:19:00</t>
+          <t>19:45:21</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -13121,10 +13121,10 @@
         <v>5</v>
       </c>
       <c r="I311" t="n">
-        <v>69360</v>
+        <v>70941.35893333334</v>
       </c>
       <c r="J311" t="n">
-        <v>69540</v>
+        <v>71121.35893333334</v>
       </c>
     </row>
     <row r="312">
@@ -13140,12 +13140,12 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>19:19:00</t>
+          <t>19:45:21</t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>19:43:00</t>
+          <t>20:09:21</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
@@ -13163,10 +13163,10 @@
         <v>5</v>
       </c>
       <c r="I312" t="n">
-        <v>69540</v>
+        <v>71121.35893333334</v>
       </c>
       <c r="J312" t="n">
-        <v>70980</v>
+        <v>72561.35893333334</v>
       </c>
     </row>
     <row r="313">
@@ -13182,12 +13182,12 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>19:43:00</t>
+          <t>20:09:21</t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>20:03:00</t>
+          <t>20:29:21</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
@@ -13203,10 +13203,10 @@
         <v>5</v>
       </c>
       <c r="I313" t="n">
-        <v>70980</v>
+        <v>72561.35893333334</v>
       </c>
       <c r="J313" t="n">
-        <v>72180</v>
+        <v>73761.35893333334</v>
       </c>
     </row>
     <row r="314">
@@ -13222,12 +13222,12 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>20:03:00</t>
+          <t>20:29:21</t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>20:04:00</t>
+          <t>20:30:21</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
@@ -13243,10 +13243,10 @@
         <v>5</v>
       </c>
       <c r="I314" t="n">
-        <v>72180</v>
+        <v>73761.35893333334</v>
       </c>
       <c r="J314" t="n">
-        <v>72240</v>
+        <v>73821.35893333334</v>
       </c>
     </row>
     <row r="315">
@@ -13262,12 +13262,12 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>20:04:00</t>
+          <t>20:30:21</t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>20:28:00</t>
+          <t>20:54:21</t>
         </is>
       </c>
       <c r="E315" t="inlineStr">
@@ -13285,10 +13285,10 @@
         <v>5</v>
       </c>
       <c r="I315" t="n">
-        <v>72240</v>
+        <v>73821.35893333334</v>
       </c>
       <c r="J315" t="n">
-        <v>73680</v>
+        <v>75261.35893333334</v>
       </c>
     </row>
     <row r="316">
@@ -13304,12 +13304,12 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>20:28:00</t>
+          <t>20:54:21</t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>20:32:00</t>
+          <t>20:58:21</t>
         </is>
       </c>
       <c r="E316" t="inlineStr">
@@ -13325,10 +13325,10 @@
         <v>5</v>
       </c>
       <c r="I316" t="n">
-        <v>73680</v>
+        <v>75261.35893333334</v>
       </c>
       <c r="J316" t="n">
-        <v>73920</v>
+        <v>75501.35893333334</v>
       </c>
     </row>
     <row r="317">
@@ -14482,12 +14482,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>13:19:00</t>
+          <t>13:45:51</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>13:43:00</t>
+          <t>14:09:51</t>
         </is>
       </c>
       <c r="E345" t="inlineStr">
@@ -14505,10 +14505,10 @@
         <v>6</v>
       </c>
       <c r="I345" t="n">
-        <v>47940</v>
+        <v>49551.65013333334</v>
       </c>
       <c r="J345" t="n">
-        <v>49380</v>
+        <v>50991.65013333334</v>
       </c>
     </row>
     <row r="346">
@@ -14524,12 +14524,12 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>13:43:00</t>
+          <t>14:09:51</t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>14:03:00</t>
+          <t>14:29:51</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
@@ -14545,10 +14545,10 @@
         <v>6</v>
       </c>
       <c r="I346" t="n">
-        <v>49380</v>
+        <v>50991.65013333334</v>
       </c>
       <c r="J346" t="n">
-        <v>50580</v>
+        <v>52191.65013333334</v>
       </c>
     </row>
     <row r="347">
@@ -14564,12 +14564,12 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>14:03:00</t>
+          <t>14:29:51</t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>14:04:00</t>
+          <t>14:30:51</t>
         </is>
       </c>
       <c r="E347" t="inlineStr">
@@ -14585,10 +14585,10 @@
         <v>6</v>
       </c>
       <c r="I347" t="n">
-        <v>50580</v>
+        <v>52191.65013333334</v>
       </c>
       <c r="J347" t="n">
-        <v>50640</v>
+        <v>52251.65013333334</v>
       </c>
     </row>
     <row r="348">
@@ -14604,12 +14604,12 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>14:04:00</t>
+          <t>14:30:51</t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>14:28:00</t>
+          <t>14:54:51</t>
         </is>
       </c>
       <c r="E348" t="inlineStr">
@@ -14627,10 +14627,10 @@
         <v>6</v>
       </c>
       <c r="I348" t="n">
-        <v>50640</v>
+        <v>52251.65013333334</v>
       </c>
       <c r="J348" t="n">
-        <v>52080</v>
+        <v>53691.65013333334</v>
       </c>
     </row>
     <row r="349">
@@ -14646,12 +14646,12 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>14:28:00</t>
+          <t>14:54:51</t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>14:32:00</t>
+          <t>14:58:51</t>
         </is>
       </c>
       <c r="E349" t="inlineStr">
@@ -14667,10 +14667,10 @@
         <v>6</v>
       </c>
       <c r="I349" t="n">
-        <v>52080</v>
+        <v>53691.65013333334</v>
       </c>
       <c r="J349" t="n">
-        <v>52320</v>
+        <v>53931.65013333334</v>
       </c>
     </row>
     <row r="350">
@@ -14686,12 +14686,12 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>14:32:00</t>
+          <t>14:58:51</t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>14:56:00</t>
+          <t>15:22:51</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -14707,10 +14707,10 @@
         <v>6</v>
       </c>
       <c r="I350" t="n">
-        <v>52320</v>
+        <v>53931.65013333334</v>
       </c>
       <c r="J350" t="n">
-        <v>53760</v>
+        <v>55371.65013333334</v>
       </c>
     </row>
     <row r="351">
@@ -14726,12 +14726,12 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>14:56:00</t>
+          <t>15:22:51</t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>15:16:00</t>
+          <t>15:42:51</t>
         </is>
       </c>
       <c r="E351" t="inlineStr">
@@ -14747,10 +14747,10 @@
         <v>6</v>
       </c>
       <c r="I351" t="n">
-        <v>53760</v>
+        <v>55371.65013333334</v>
       </c>
       <c r="J351" t="n">
-        <v>54960</v>
+        <v>56571.65013333334</v>
       </c>
     </row>
     <row r="352">
@@ -14766,12 +14766,12 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>15:16:00</t>
+          <t>15:42:51</t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>15:41:00</t>
+          <t>16:07:51</t>
         </is>
       </c>
       <c r="E352" t="inlineStr">
@@ -14789,10 +14789,10 @@
         <v>6</v>
       </c>
       <c r="I352" t="n">
-        <v>54960</v>
+        <v>56571.65013333334</v>
       </c>
       <c r="J352" t="n">
-        <v>56460</v>
+        <v>58071.65013333334</v>
       </c>
     </row>
     <row r="353">
@@ -14808,12 +14808,12 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>15:41:00</t>
+          <t>16:07:51</t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>15:49:00</t>
+          <t>16:15:51</t>
         </is>
       </c>
       <c r="E353" t="inlineStr">
@@ -14829,10 +14829,10 @@
         <v>6</v>
       </c>
       <c r="I353" t="n">
-        <v>56460</v>
+        <v>58071.65013333334</v>
       </c>
       <c r="J353" t="n">
-        <v>56940</v>
+        <v>58551.65013333334</v>
       </c>
     </row>
     <row r="354">
@@ -14848,12 +14848,12 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>15:49:00</t>
+          <t>16:15:51</t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>16:13:00</t>
+          <t>16:39:51</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -14871,10 +14871,10 @@
         <v>6</v>
       </c>
       <c r="I354" t="n">
-        <v>56940</v>
+        <v>58551.65013333334</v>
       </c>
       <c r="J354" t="n">
-        <v>58380</v>
+        <v>59991.65013333334</v>
       </c>
     </row>
     <row r="355">
@@ -14890,12 +14890,12 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>16:13:00</t>
+          <t>16:39:51</t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>16:16:00</t>
+          <t>16:42:51</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -14911,10 +14911,10 @@
         <v>6</v>
       </c>
       <c r="I355" t="n">
-        <v>58380</v>
+        <v>59991.65013333334</v>
       </c>
       <c r="J355" t="n">
-        <v>58560</v>
+        <v>60171.65013333334</v>
       </c>
     </row>
     <row r="356">
@@ -14930,12 +14930,12 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>16:16:00</t>
+          <t>16:42:51</t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>16:41:00</t>
+          <t>17:07:51</t>
         </is>
       </c>
       <c r="E356" t="inlineStr">
@@ -14953,10 +14953,10 @@
         <v>6</v>
       </c>
       <c r="I356" t="n">
-        <v>58560</v>
+        <v>60171.65013333334</v>
       </c>
       <c r="J356" t="n">
-        <v>60060</v>
+        <v>61671.65013333334</v>
       </c>
     </row>
     <row r="357">
@@ -14972,12 +14972,12 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>16:41:00</t>
+          <t>17:07:51</t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>16:49:00</t>
+          <t>17:15:51</t>
         </is>
       </c>
       <c r="E357" t="inlineStr">
@@ -14993,10 +14993,10 @@
         <v>6</v>
       </c>
       <c r="I357" t="n">
-        <v>60060</v>
+        <v>61671.65013333334</v>
       </c>
       <c r="J357" t="n">
-        <v>60540</v>
+        <v>62151.65013333334</v>
       </c>
     </row>
     <row r="358">
@@ -15012,12 +15012,12 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>16:49:00</t>
+          <t>17:15:51</t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>17:13:00</t>
+          <t>17:39:51</t>
         </is>
       </c>
       <c r="E358" t="inlineStr">
@@ -15035,10 +15035,10 @@
         <v>6</v>
       </c>
       <c r="I358" t="n">
-        <v>60540</v>
+        <v>62151.65013333334</v>
       </c>
       <c r="J358" t="n">
-        <v>61980</v>
+        <v>63591.65013333334</v>
       </c>
     </row>
     <row r="359">
@@ -15054,12 +15054,12 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>17:13:00</t>
+          <t>17:39:51</t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>17:36:00</t>
+          <t>18:02:51</t>
         </is>
       </c>
       <c r="E359" t="inlineStr">
@@ -15075,10 +15075,10 @@
         <v>6</v>
       </c>
       <c r="I359" t="n">
-        <v>61980</v>
+        <v>63591.65013333334</v>
       </c>
       <c r="J359" t="n">
-        <v>63360</v>
+        <v>64971.65013333334</v>
       </c>
     </row>
     <row r="360">
@@ -15094,12 +15094,12 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>17:36:00</t>
+          <t>18:02:51</t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>18:01:00</t>
+          <t>18:27:51</t>
         </is>
       </c>
       <c r="E360" t="inlineStr">
@@ -15117,10 +15117,10 @@
         <v>6</v>
       </c>
       <c r="I360" t="n">
-        <v>63360</v>
+        <v>64971.65013333334</v>
       </c>
       <c r="J360" t="n">
-        <v>64860</v>
+        <v>66471.65013333334</v>
       </c>
     </row>
     <row r="361">
@@ -15136,12 +15136,12 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>18:01:00</t>
+          <t>18:27:51</t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>18:21:00</t>
+          <t>18:47:51</t>
         </is>
       </c>
       <c r="E361" t="inlineStr">
@@ -15157,10 +15157,10 @@
         <v>6</v>
       </c>
       <c r="I361" t="n">
-        <v>64860</v>
+        <v>66471.65013333334</v>
       </c>
       <c r="J361" t="n">
-        <v>66060</v>
+        <v>67671.65013333334</v>
       </c>
     </row>
     <row r="362">
@@ -15176,12 +15176,12 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>18:21:00</t>
+          <t>18:47:51</t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>18:53:51</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
@@ -15197,10 +15197,10 @@
         <v>6</v>
       </c>
       <c r="I362" t="n">
-        <v>66060</v>
+        <v>67671.65013333334</v>
       </c>
       <c r="J362" t="n">
-        <v>66420</v>
+        <v>68031.65013333334</v>
       </c>
     </row>
     <row r="363">
@@ -15216,12 +15216,12 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>18:53:51</t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>18:51:00</t>
+          <t>19:17:51</t>
         </is>
       </c>
       <c r="E363" t="inlineStr">
@@ -15239,10 +15239,10 @@
         <v>6</v>
       </c>
       <c r="I363" t="n">
-        <v>66420</v>
+        <v>68031.65013333334</v>
       </c>
       <c r="J363" t="n">
-        <v>67860</v>
+        <v>69471.65013333334</v>
       </c>
     </row>
     <row r="364">
@@ -15258,12 +15258,12 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>18:51:00</t>
+          <t>19:17:51</t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>18:59:00</t>
+          <t>19:25:51</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -15279,10 +15279,10 @@
         <v>6</v>
       </c>
       <c r="I364" t="n">
-        <v>67860</v>
+        <v>69471.65013333334</v>
       </c>
       <c r="J364" t="n">
-        <v>68340</v>
+        <v>69951.65013333334</v>
       </c>
     </row>
     <row r="365">
@@ -15298,12 +15298,12 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>18:59:00</t>
+          <t>19:25:51</t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>19:23:00</t>
+          <t>19:49:51</t>
         </is>
       </c>
       <c r="E365" t="inlineStr">
@@ -15321,10 +15321,10 @@
         <v>6</v>
       </c>
       <c r="I365" t="n">
-        <v>68340</v>
+        <v>69951.65013333334</v>
       </c>
       <c r="J365" t="n">
-        <v>69780</v>
+        <v>71391.65013333334</v>
       </c>
     </row>
     <row r="366">
@@ -15340,12 +15340,12 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>19:23:00</t>
+          <t>19:49:51</t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>19:27:00</t>
+          <t>19:53:51</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -15361,10 +15361,10 @@
         <v>6</v>
       </c>
       <c r="I366" t="n">
-        <v>69780</v>
+        <v>71391.65013333334</v>
       </c>
       <c r="J366" t="n">
-        <v>70020</v>
+        <v>71631.65013333334</v>
       </c>
     </row>
     <row r="367">
@@ -15380,12 +15380,12 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>19:27:00</t>
+          <t>19:53:51</t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>19:51:00</t>
+          <t>20:17:51</t>
         </is>
       </c>
       <c r="E367" t="inlineStr">
@@ -15403,10 +15403,10 @@
         <v>6</v>
       </c>
       <c r="I367" t="n">
-        <v>70020</v>
+        <v>71631.65013333334</v>
       </c>
       <c r="J367" t="n">
-        <v>71460</v>
+        <v>73071.65013333334</v>
       </c>
     </row>
     <row r="368">
@@ -15422,12 +15422,12 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>19:51:00</t>
+          <t>20:17:51</t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>19:55:00</t>
+          <t>20:21:51</t>
         </is>
       </c>
       <c r="E368" t="inlineStr">
@@ -15443,10 +15443,10 @@
         <v>6</v>
       </c>
       <c r="I368" t="n">
-        <v>71460</v>
+        <v>73071.65013333334</v>
       </c>
       <c r="J368" t="n">
-        <v>71700</v>
+        <v>73311.65013333334</v>
       </c>
     </row>
     <row r="369">
@@ -16600,12 +16600,12 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13:34:00</t>
+          <t>14:00:51</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>13:58:00</t>
+          <t>14:24:51</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
@@ -16623,10 +16623,10 @@
         <v>7</v>
       </c>
       <c r="I397" t="n">
-        <v>48840</v>
+        <v>50451.65013333334</v>
       </c>
       <c r="J397" t="n">
-        <v>50280</v>
+        <v>51891.65013333334</v>
       </c>
     </row>
     <row r="398">
@@ -16642,12 +16642,12 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13:58:00</t>
+          <t>14:24:51</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>14:18:00</t>
+          <t>14:44:51</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
@@ -16663,10 +16663,10 @@
         <v>7</v>
       </c>
       <c r="I398" t="n">
-        <v>50280</v>
+        <v>51891.65013333334</v>
       </c>
       <c r="J398" t="n">
-        <v>51480</v>
+        <v>53091.65013333334</v>
       </c>
     </row>
     <row r="399">
@@ -16682,12 +16682,12 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>14:18:00</t>
+          <t>14:44:51</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>14:19:00</t>
+          <t>14:45:51</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
@@ -16703,10 +16703,10 @@
         <v>7</v>
       </c>
       <c r="I399" t="n">
-        <v>51480</v>
+        <v>53091.65013333334</v>
       </c>
       <c r="J399" t="n">
-        <v>51540</v>
+        <v>53151.65013333334</v>
       </c>
     </row>
     <row r="400">
@@ -16722,12 +16722,12 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>14:19:00</t>
+          <t>14:45:51</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>14:43:00</t>
+          <t>15:09:51</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
@@ -16745,10 +16745,10 @@
         <v>7</v>
       </c>
       <c r="I400" t="n">
-        <v>51540</v>
+        <v>53151.65013333334</v>
       </c>
       <c r="J400" t="n">
-        <v>52980</v>
+        <v>54591.65013333334</v>
       </c>
     </row>
     <row r="401">
@@ -16764,12 +16764,12 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>14:43:00</t>
+          <t>15:09:51</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>14:47:00</t>
+          <t>15:13:51</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
@@ -16785,10 +16785,10 @@
         <v>7</v>
       </c>
       <c r="I401" t="n">
-        <v>52980</v>
+        <v>54591.65013333334</v>
       </c>
       <c r="J401" t="n">
-        <v>53220</v>
+        <v>54831.65013333334</v>
       </c>
     </row>
     <row r="402">
@@ -16804,12 +16804,12 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>14:47:00</t>
+          <t>15:13:51</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>15:07:00</t>
+          <t>15:33:51</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
@@ -16825,10 +16825,10 @@
         <v>7</v>
       </c>
       <c r="I402" t="n">
-        <v>53220</v>
+        <v>54831.65013333334</v>
       </c>
       <c r="J402" t="n">
-        <v>54420</v>
+        <v>56031.65013333334</v>
       </c>
     </row>
     <row r="403">
@@ -16844,12 +16844,12 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>15:07:00</t>
+          <t>15:33:51</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>15:27:00</t>
+          <t>15:53:51</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
@@ -16865,10 +16865,10 @@
         <v>7</v>
       </c>
       <c r="I403" t="n">
-        <v>54420</v>
+        <v>56031.65013333334</v>
       </c>
       <c r="J403" t="n">
-        <v>55620</v>
+        <v>57231.65013333334</v>
       </c>
     </row>
     <row r="404">
@@ -16884,12 +16884,12 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>15:27:00</t>
+          <t>15:53:51</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:17:51</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
@@ -16907,10 +16907,10 @@
         <v>7</v>
       </c>
       <c r="I404" t="n">
-        <v>55620</v>
+        <v>57231.65013333334</v>
       </c>
       <c r="J404" t="n">
-        <v>57060</v>
+        <v>58671.65013333334</v>
       </c>
     </row>
     <row r="405">
@@ -16926,12 +16926,12 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>15:51:00</t>
+          <t>16:17:51</t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:41:51</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
@@ -16949,10 +16949,10 @@
         <v>7</v>
       </c>
       <c r="I405" t="n">
-        <v>57060</v>
+        <v>58671.65013333334</v>
       </c>
       <c r="J405" t="n">
-        <v>58500</v>
+        <v>60111.65013333334</v>
       </c>
     </row>
     <row r="406">
@@ -16968,12 +16968,12 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:41:51</t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>16:19:00</t>
+          <t>16:45:51</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
@@ -16989,10 +16989,10 @@
         <v>7</v>
       </c>
       <c r="I406" t="n">
-        <v>58500</v>
+        <v>60111.65013333334</v>
       </c>
       <c r="J406" t="n">
-        <v>58740</v>
+        <v>60351.65013333334</v>
       </c>
     </row>
     <row r="407">
@@ -17008,12 +17008,12 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>16:19:00</t>
+          <t>16:45:51</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>17:09:51</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
@@ -17031,10 +17031,10 @@
         <v>7</v>
       </c>
       <c r="I407" t="n">
-        <v>58740</v>
+        <v>60351.65013333334</v>
       </c>
       <c r="J407" t="n">
-        <v>60180</v>
+        <v>61791.65013333334</v>
       </c>
     </row>
     <row r="408">
@@ -17050,12 +17050,12 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>16:43:00</t>
+          <t>17:09:51</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>17:29:51</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
@@ -17071,10 +17071,10 @@
         <v>7</v>
       </c>
       <c r="I408" t="n">
-        <v>60180</v>
+        <v>61791.65013333334</v>
       </c>
       <c r="J408" t="n">
-        <v>61380</v>
+        <v>62991.65013333334</v>
       </c>
     </row>
     <row r="409">
@@ -17090,12 +17090,12 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>17:29:51</t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>17:04:00</t>
+          <t>17:30:51</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
@@ -17111,10 +17111,10 @@
         <v>7</v>
       </c>
       <c r="I409" t="n">
-        <v>61380</v>
+        <v>62991.65013333334</v>
       </c>
       <c r="J409" t="n">
-        <v>61440</v>
+        <v>63051.65013333334</v>
       </c>
     </row>
     <row r="410">
@@ -17130,12 +17130,12 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>17:04:00</t>
+          <t>17:30:51</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>17:28:00</t>
+          <t>17:54:51</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
@@ -17153,10 +17153,10 @@
         <v>7</v>
       </c>
       <c r="I410" t="n">
-        <v>61440</v>
+        <v>63051.65013333334</v>
       </c>
       <c r="J410" t="n">
-        <v>62880</v>
+        <v>64491.65013333334</v>
       </c>
     </row>
     <row r="411">
@@ -17172,12 +17172,12 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>17:28:00</t>
+          <t>17:54:51</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>17:48:00</t>
+          <t>18:14:51</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
@@ -17193,10 +17193,10 @@
         <v>7</v>
       </c>
       <c r="I411" t="n">
-        <v>62880</v>
+        <v>64491.65013333334</v>
       </c>
       <c r="J411" t="n">
-        <v>64080</v>
+        <v>65691.65013333334</v>
       </c>
     </row>
     <row r="412">
@@ -17212,12 +17212,12 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>17:48:00</t>
+          <t>18:14:51</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>18:15:51</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
@@ -17233,10 +17233,10 @@
         <v>7</v>
       </c>
       <c r="I412" t="n">
-        <v>64080</v>
+        <v>65691.65013333334</v>
       </c>
       <c r="J412" t="n">
-        <v>64140</v>
+        <v>65751.65013333334</v>
       </c>
     </row>
     <row r="413">
@@ -17252,12 +17252,12 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>18:15:51</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>18:13:00</t>
+          <t>18:39:51</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
@@ -17275,10 +17275,10 @@
         <v>7</v>
       </c>
       <c r="I413" t="n">
-        <v>64140</v>
+        <v>65751.65013333334</v>
       </c>
       <c r="J413" t="n">
-        <v>65580</v>
+        <v>67191.65013333334</v>
       </c>
     </row>
     <row r="414">
@@ -17294,12 +17294,12 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>18:13:00</t>
+          <t>18:39:51</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>18:33:00</t>
+          <t>18:59:51</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
@@ -17315,10 +17315,10 @@
         <v>7</v>
       </c>
       <c r="I414" t="n">
-        <v>65580</v>
+        <v>67191.65013333334</v>
       </c>
       <c r="J414" t="n">
-        <v>66780</v>
+        <v>68391.65013333334</v>
       </c>
     </row>
     <row r="415">
@@ -17334,12 +17334,12 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>18:33:00</t>
+          <t>18:59:51</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>18:34:00</t>
+          <t>19:00:51</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -17355,10 +17355,10 @@
         <v>7</v>
       </c>
       <c r="I415" t="n">
-        <v>66780</v>
+        <v>68391.65013333334</v>
       </c>
       <c r="J415" t="n">
-        <v>66840</v>
+        <v>68451.65013333334</v>
       </c>
     </row>
     <row r="416">
@@ -17374,12 +17374,12 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>18:34:00</t>
+          <t>19:00:51</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>18:58:00</t>
+          <t>19:24:51</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
@@ -17397,10 +17397,10 @@
         <v>7</v>
       </c>
       <c r="I416" t="n">
-        <v>66840</v>
+        <v>68451.65013333334</v>
       </c>
       <c r="J416" t="n">
-        <v>68280</v>
+        <v>69891.65013333334</v>
       </c>
     </row>
     <row r="417">
@@ -17416,12 +17416,12 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>18:58:00</t>
+          <t>19:24:51</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>19:14:00</t>
+          <t>19:40:51</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
@@ -17437,10 +17437,10 @@
         <v>7</v>
       </c>
       <c r="I417" t="n">
-        <v>68280</v>
+        <v>69891.65013333334</v>
       </c>
       <c r="J417" t="n">
-        <v>69240</v>
+        <v>70851.65013333334</v>
       </c>
     </row>
     <row r="418">
@@ -17456,12 +17456,12 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>19:14:00</t>
+          <t>19:40:51</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>19:38:00</t>
+          <t>20:04:51</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
@@ -17479,10 +17479,10 @@
         <v>7</v>
       </c>
       <c r="I418" t="n">
-        <v>69240</v>
+        <v>70851.65013333334</v>
       </c>
       <c r="J418" t="n">
-        <v>70680</v>
+        <v>72291.65013333334</v>
       </c>
     </row>
     <row r="419">
@@ -17498,12 +17498,12 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>19:38:00</t>
+          <t>20:04:51</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>19:49:00</t>
+          <t>20:15:51</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -17519,10 +17519,10 @@
         <v>7</v>
       </c>
       <c r="I419" t="n">
-        <v>70680</v>
+        <v>72291.65013333334</v>
       </c>
       <c r="J419" t="n">
-        <v>71340</v>
+        <v>72951.65013333334</v>
       </c>
     </row>
     <row r="420">
@@ -17538,12 +17538,12 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>19:49:00</t>
+          <t>20:15:51</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>20:13:00</t>
+          <t>20:39:51</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
@@ -17561,10 +17561,10 @@
         <v>7</v>
       </c>
       <c r="I420" t="n">
-        <v>71340</v>
+        <v>72951.65013333334</v>
       </c>
       <c r="J420" t="n">
-        <v>72780</v>
+        <v>74391.65013333334</v>
       </c>
     </row>
     <row r="421">
@@ -17580,12 +17580,12 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>20:13:00</t>
+          <t>20:39:51</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>20:17:00</t>
+          <t>20:43:51</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -17601,10 +17601,10 @@
         <v>7</v>
       </c>
       <c r="I421" t="n">
-        <v>72780</v>
+        <v>74391.65013333334</v>
       </c>
       <c r="J421" t="n">
-        <v>73020</v>
+        <v>74631.65013333334</v>
       </c>
     </row>
     <row r="422">
@@ -18758,12 +18758,12 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t>13:49:00</t>
+          <t>14:15:35</t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>14:13:00</t>
+          <t>14:39:35</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
@@ -18781,10 +18781,10 @@
         <v>8</v>
       </c>
       <c r="I450" t="n">
-        <v>49740</v>
+        <v>51335.28213333333</v>
       </c>
       <c r="J450" t="n">
-        <v>51180</v>
+        <v>52775.28213333333</v>
       </c>
     </row>
     <row r="451">
@@ -18800,12 +18800,12 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>14:13:00</t>
+          <t>14:39:35</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>14:33:00</t>
+          <t>14:59:35</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
@@ -18821,10 +18821,10 @@
         <v>8</v>
       </c>
       <c r="I451" t="n">
-        <v>51180</v>
+        <v>52775.28213333333</v>
       </c>
       <c r="J451" t="n">
-        <v>52380</v>
+        <v>53975.28213333333</v>
       </c>
     </row>
     <row r="452">
@@ -18840,12 +18840,12 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t>14:33:00</t>
+          <t>14:59:35</t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>14:34:00</t>
+          <t>15:00:35</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
@@ -18861,10 +18861,10 @@
         <v>8</v>
       </c>
       <c r="I452" t="n">
-        <v>52380</v>
+        <v>53975.28213333333</v>
       </c>
       <c r="J452" t="n">
-        <v>52440</v>
+        <v>54035.28213333333</v>
       </c>
     </row>
     <row r="453">
@@ -18880,12 +18880,12 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>14:34:00</t>
+          <t>15:00:35</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>14:58:00</t>
+          <t>15:24:35</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -18903,10 +18903,10 @@
         <v>8</v>
       </c>
       <c r="I453" t="n">
-        <v>52440</v>
+        <v>54035.28213333333</v>
       </c>
       <c r="J453" t="n">
-        <v>53880</v>
+        <v>55475.28213333333</v>
       </c>
     </row>
     <row r="454">
@@ -18922,12 +18922,12 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>14:58:00</t>
+          <t>15:24:35</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>15:02:00</t>
+          <t>15:28:35</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -18943,10 +18943,10 @@
         <v>8</v>
       </c>
       <c r="I454" t="n">
-        <v>53880</v>
+        <v>55475.28213333333</v>
       </c>
       <c r="J454" t="n">
-        <v>54120</v>
+        <v>55715.28213333333</v>
       </c>
     </row>
     <row r="455">
@@ -18962,12 +18962,12 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>15:02:00</t>
+          <t>15:28:35</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>15:20:00</t>
+          <t>15:46:35</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
@@ -18983,10 +18983,10 @@
         <v>8</v>
       </c>
       <c r="I455" t="n">
-        <v>54120</v>
+        <v>55715.28213333333</v>
       </c>
       <c r="J455" t="n">
-        <v>55200</v>
+        <v>56795.28213333333</v>
       </c>
     </row>
     <row r="456">
@@ -19002,12 +19002,12 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>15:20:00</t>
+          <t>15:46:35</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>15:24:00</t>
+          <t>15:50:35</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
@@ -19023,10 +19023,10 @@
         <v>8</v>
       </c>
       <c r="I456" t="n">
-        <v>55200</v>
+        <v>56795.28213333333</v>
       </c>
       <c r="J456" t="n">
-        <v>55440</v>
+        <v>57035.28213333333</v>
       </c>
     </row>
     <row r="457">
@@ -19042,12 +19042,12 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>15:24:00</t>
+          <t>15:50:35</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>15:48:00</t>
+          <t>16:14:35</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
@@ -19065,10 +19065,10 @@
         <v>8</v>
       </c>
       <c r="I457" t="n">
-        <v>55440</v>
+        <v>57035.28213333333</v>
       </c>
       <c r="J457" t="n">
-        <v>56880</v>
+        <v>58475.28213333333</v>
       </c>
     </row>
     <row r="458">
@@ -19084,12 +19084,12 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>15:48:00</t>
+          <t>16:14:35</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>15:49:00</t>
+          <t>16:15:35</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
@@ -19105,10 +19105,10 @@
         <v>8</v>
       </c>
       <c r="I458" t="n">
-        <v>56880</v>
+        <v>58475.28213333333</v>
       </c>
       <c r="J458" t="n">
-        <v>56940</v>
+        <v>58535.28213333333</v>
       </c>
     </row>
     <row r="459">
@@ -19124,12 +19124,12 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>15:49:00</t>
+          <t>16:15:35</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>16:13:00</t>
+          <t>16:39:35</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
@@ -19147,10 +19147,10 @@
         <v>8</v>
       </c>
       <c r="I459" t="n">
-        <v>56940</v>
+        <v>58535.28213333333</v>
       </c>
       <c r="J459" t="n">
-        <v>58380</v>
+        <v>59975.28213333333</v>
       </c>
     </row>
     <row r="460">
@@ -19166,12 +19166,12 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>16:13:00</t>
+          <t>16:39:35</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>16:33:00</t>
+          <t>16:59:35</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
@@ -19187,10 +19187,10 @@
         <v>8</v>
       </c>
       <c r="I460" t="n">
-        <v>58380</v>
+        <v>59975.28213333333</v>
       </c>
       <c r="J460" t="n">
-        <v>59580</v>
+        <v>61175.28213333333</v>
       </c>
     </row>
     <row r="461">
@@ -19206,12 +19206,12 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>16:33:00</t>
+          <t>16:59:35</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>16:34:00</t>
+          <t>17:00:35</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
@@ -19227,10 +19227,10 @@
         <v>8</v>
       </c>
       <c r="I461" t="n">
-        <v>59580</v>
+        <v>61175.28213333333</v>
       </c>
       <c r="J461" t="n">
-        <v>59640</v>
+        <v>61235.28213333333</v>
       </c>
     </row>
     <row r="462">
@@ -19246,12 +19246,12 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>16:34:00</t>
+          <t>17:00:35</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>16:58:00</t>
+          <t>17:24:35</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
@@ -19269,10 +19269,10 @@
         <v>8</v>
       </c>
       <c r="I462" t="n">
-        <v>59640</v>
+        <v>61235.28213333333</v>
       </c>
       <c r="J462" t="n">
-        <v>61080</v>
+        <v>62675.28213333333</v>
       </c>
     </row>
     <row r="463">
@@ -19288,12 +19288,12 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>16:58:00</t>
+          <t>17:24:35</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>17:18:00</t>
+          <t>17:44:35</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -19309,10 +19309,10 @@
         <v>8</v>
       </c>
       <c r="I463" t="n">
-        <v>61080</v>
+        <v>62675.28213333333</v>
       </c>
       <c r="J463" t="n">
-        <v>62280</v>
+        <v>63875.28213333333</v>
       </c>
     </row>
     <row r="464">
@@ -19328,12 +19328,12 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t>17:18:00</t>
+          <t>17:44:35</t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>17:19:00</t>
+          <t>17:45:35</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
@@ -19349,10 +19349,10 @@
         <v>8</v>
       </c>
       <c r="I464" t="n">
-        <v>62280</v>
+        <v>63875.28213333333</v>
       </c>
       <c r="J464" t="n">
-        <v>62340</v>
+        <v>63935.28213333333</v>
       </c>
     </row>
     <row r="465">
@@ -19368,12 +19368,12 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t>17:19:00</t>
+          <t>17:45:35</t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>17:43:00</t>
+          <t>18:09:35</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -19391,10 +19391,10 @@
         <v>8</v>
       </c>
       <c r="I465" t="n">
-        <v>62340</v>
+        <v>63935.28213333333</v>
       </c>
       <c r="J465" t="n">
-        <v>63780</v>
+        <v>65375.28213333333</v>
       </c>
     </row>
     <row r="466">
@@ -19410,12 +19410,12 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>17:43:00</t>
+          <t>18:09:35</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>18:29:35</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -19431,10 +19431,10 @@
         <v>8</v>
       </c>
       <c r="I466" t="n">
-        <v>63780</v>
+        <v>65375.28213333333</v>
       </c>
       <c r="J466" t="n">
-        <v>64980</v>
+        <v>66575.28213333333</v>
       </c>
     </row>
     <row r="467">
@@ -19450,12 +19450,12 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t>18:03:00</t>
+          <t>18:29:35</t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>18:04:00</t>
+          <t>18:30:35</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -19471,10 +19471,10 @@
         <v>8</v>
       </c>
       <c r="I467" t="n">
-        <v>64980</v>
+        <v>66575.28213333333</v>
       </c>
       <c r="J467" t="n">
-        <v>65040</v>
+        <v>66635.28213333333</v>
       </c>
     </row>
     <row r="468">
@@ -19490,12 +19490,12 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>18:04:00</t>
+          <t>18:30:35</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>18:28:00</t>
+          <t>18:54:35</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -19513,10 +19513,10 @@
         <v>8</v>
       </c>
       <c r="I468" t="n">
-        <v>65040</v>
+        <v>66635.28213333333</v>
       </c>
       <c r="J468" t="n">
-        <v>66480</v>
+        <v>68075.28213333333</v>
       </c>
     </row>
     <row r="469">
@@ -19532,12 +19532,12 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>18:28:00</t>
+          <t>18:54:35</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>18:29:00</t>
+          <t>18:55:35</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -19553,10 +19553,10 @@
         <v>8</v>
       </c>
       <c r="I469" t="n">
-        <v>66480</v>
+        <v>68075.28213333333</v>
       </c>
       <c r="J469" t="n">
-        <v>66540</v>
+        <v>68135.28213333333</v>
       </c>
     </row>
     <row r="470">
@@ -19572,12 +19572,12 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>18:29:00</t>
+          <t>18:55:35</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>18:53:00</t>
+          <t>19:19:35</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -19595,10 +19595,10 @@
         <v>8</v>
       </c>
       <c r="I470" t="n">
-        <v>66540</v>
+        <v>68135.28213333333</v>
       </c>
       <c r="J470" t="n">
-        <v>67980</v>
+        <v>69575.28213333333</v>
       </c>
     </row>
     <row r="471">
@@ -19614,12 +19614,12 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>18:53:00</t>
+          <t>19:19:35</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>18:57:00</t>
+          <t>19:23:35</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
@@ -19635,10 +19635,10 @@
         <v>8</v>
       </c>
       <c r="I471" t="n">
-        <v>67980</v>
+        <v>69575.28213333333</v>
       </c>
       <c r="J471" t="n">
-        <v>68220</v>
+        <v>69815.28213333333</v>
       </c>
     </row>
     <row r="472">
@@ -19654,12 +19654,12 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>18:57:00</t>
+          <t>19:23:35</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>19:21:00</t>
+          <t>19:47:35</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -19677,10 +19677,10 @@
         <v>8</v>
       </c>
       <c r="I472" t="n">
-        <v>68220</v>
+        <v>69815.28213333333</v>
       </c>
       <c r="J472" t="n">
-        <v>69660</v>
+        <v>71255.28213333333</v>
       </c>
     </row>
     <row r="473">
@@ -19696,12 +19696,12 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>19:21:00</t>
+          <t>19:47:35</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>19:29:00</t>
+          <t>19:55:35</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -19717,10 +19717,10 @@
         <v>8</v>
       </c>
       <c r="I473" t="n">
-        <v>69660</v>
+        <v>71255.28213333333</v>
       </c>
       <c r="J473" t="n">
-        <v>70140</v>
+        <v>71735.28213333333</v>
       </c>
     </row>
     <row r="474">
@@ -19736,12 +19736,12 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>19:29:00</t>
+          <t>19:55:35</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>19:53:00</t>
+          <t>20:19:35</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
@@ -19759,10 +19759,10 @@
         <v>8</v>
       </c>
       <c r="I474" t="n">
-        <v>70140</v>
+        <v>71735.28213333333</v>
       </c>
       <c r="J474" t="n">
-        <v>71580</v>
+        <v>73175.28213333333</v>
       </c>
     </row>
     <row r="475">
@@ -19778,12 +19778,12 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>19:53:00</t>
+          <t>20:19:35</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>20:13:00</t>
+          <t>20:39:35</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
@@ -19799,10 +19799,10 @@
         <v>8</v>
       </c>
       <c r="I475" t="n">
-        <v>71580</v>
+        <v>73175.28213333333</v>
       </c>
       <c r="J475" t="n">
-        <v>72780</v>
+        <v>74375.28213333333</v>
       </c>
     </row>
     <row r="476">
@@ -20882,12 +20882,12 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>13:59:00</t>
+          <t>14:25:44</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>14:23:00</t>
+          <t>14:49:44</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -20905,10 +20905,10 @@
         <v>9</v>
       </c>
       <c r="I502" t="n">
-        <v>50340</v>
+        <v>51944.8128</v>
       </c>
       <c r="J502" t="n">
-        <v>51780</v>
+        <v>53384.8128</v>
       </c>
     </row>
     <row r="503">
@@ -20924,12 +20924,12 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>14:23:00</t>
+          <t>14:49:44</t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>14:27:00</t>
+          <t>14:53:44</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
@@ -20945,10 +20945,10 @@
         <v>9</v>
       </c>
       <c r="I503" t="n">
-        <v>51780</v>
+        <v>53384.8128</v>
       </c>
       <c r="J503" t="n">
-        <v>52020</v>
+        <v>53624.8128</v>
       </c>
     </row>
     <row r="504">
@@ -20964,12 +20964,12 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>14:27:00</t>
+          <t>14:53:44</t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>15:17:44</t>
         </is>
       </c>
       <c r="E504" t="inlineStr">
@@ -20987,10 +20987,10 @@
         <v>9</v>
       </c>
       <c r="I504" t="n">
-        <v>52020</v>
+        <v>53624.8128</v>
       </c>
       <c r="J504" t="n">
-        <v>53460</v>
+        <v>55064.8128</v>
       </c>
     </row>
     <row r="505">
@@ -21006,12 +21006,12 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>14:51:00</t>
+          <t>15:17:44</t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:41:44</t>
         </is>
       </c>
       <c r="E505" t="inlineStr">
@@ -21029,10 +21029,10 @@
         <v>9</v>
       </c>
       <c r="I505" t="n">
-        <v>53460</v>
+        <v>55064.8128</v>
       </c>
       <c r="J505" t="n">
-        <v>54900</v>
+        <v>56504.8128</v>
       </c>
     </row>
     <row r="506">
@@ -21048,12 +21048,12 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>15:15:00</t>
+          <t>15:41:44</t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
         <is>
-          <t>15:19:00</t>
+          <t>15:45:44</t>
         </is>
       </c>
       <c r="E506" t="inlineStr">
@@ -21069,10 +21069,10 @@
         <v>9</v>
       </c>
       <c r="I506" t="n">
-        <v>54900</v>
+        <v>56504.8128</v>
       </c>
       <c r="J506" t="n">
-        <v>55140</v>
+        <v>56744.8128</v>
       </c>
     </row>
     <row r="507">
@@ -21088,12 +21088,12 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>15:19:00</t>
+          <t>15:45:44</t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
         <is>
-          <t>15:43:00</t>
+          <t>16:09:44</t>
         </is>
       </c>
       <c r="E507" t="inlineStr">
@@ -21111,10 +21111,10 @@
         <v>9</v>
       </c>
       <c r="I507" t="n">
-        <v>55140</v>
+        <v>56744.8128</v>
       </c>
       <c r="J507" t="n">
-        <v>56580</v>
+        <v>58184.8128</v>
       </c>
     </row>
     <row r="508">
@@ -21130,12 +21130,12 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>15:43:00</t>
+          <t>16:09:44</t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>16:03:00</t>
+          <t>16:29:44</t>
         </is>
       </c>
       <c r="E508" t="inlineStr">
@@ -21151,10 +21151,10 @@
         <v>9</v>
       </c>
       <c r="I508" t="n">
-        <v>56580</v>
+        <v>58184.8128</v>
       </c>
       <c r="J508" t="n">
-        <v>57780</v>
+        <v>59384.8128</v>
       </c>
     </row>
     <row r="509">
@@ -21170,12 +21170,12 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>16:03:00</t>
+          <t>16:29:44</t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
         <is>
-          <t>16:04:00</t>
+          <t>16:30:44</t>
         </is>
       </c>
       <c r="E509" t="inlineStr">
@@ -21191,10 +21191,10 @@
         <v>9</v>
       </c>
       <c r="I509" t="n">
-        <v>57780</v>
+        <v>59384.8128</v>
       </c>
       <c r="J509" t="n">
-        <v>57840</v>
+        <v>59444.8128</v>
       </c>
     </row>
     <row r="510">
@@ -21210,12 +21210,12 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>16:04:00</t>
+          <t>16:30:44</t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
         <is>
-          <t>16:28:00</t>
+          <t>16:54:44</t>
         </is>
       </c>
       <c r="E510" t="inlineStr">
@@ -21233,10 +21233,10 @@
         <v>9</v>
       </c>
       <c r="I510" t="n">
-        <v>57840</v>
+        <v>59444.8128</v>
       </c>
       <c r="J510" t="n">
-        <v>59280</v>
+        <v>60884.8128</v>
       </c>
     </row>
     <row r="511">
@@ -21252,12 +21252,12 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>16:28:00</t>
+          <t>16:54:44</t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
         <is>
-          <t>16:48:00</t>
+          <t>17:14:44</t>
         </is>
       </c>
       <c r="E511" t="inlineStr">
@@ -21273,10 +21273,10 @@
         <v>9</v>
       </c>
       <c r="I511" t="n">
-        <v>59280</v>
+        <v>60884.8128</v>
       </c>
       <c r="J511" t="n">
-        <v>60480</v>
+        <v>62084.8128</v>
       </c>
     </row>
     <row r="512">
@@ -21292,12 +21292,12 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>16:48:00</t>
+          <t>17:14:44</t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>16:49:00</t>
+          <t>17:15:44</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -21313,10 +21313,10 @@
         <v>9</v>
       </c>
       <c r="I512" t="n">
-        <v>60480</v>
+        <v>62084.8128</v>
       </c>
       <c r="J512" t="n">
-        <v>60540</v>
+        <v>62144.8128</v>
       </c>
     </row>
     <row r="513">
@@ -21332,12 +21332,12 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>16:49:00</t>
+          <t>17:15:44</t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
         <is>
-          <t>17:13:00</t>
+          <t>17:39:44</t>
         </is>
       </c>
       <c r="E513" t="inlineStr">
@@ -21355,10 +21355,10 @@
         <v>9</v>
       </c>
       <c r="I513" t="n">
-        <v>60540</v>
+        <v>62144.8128</v>
       </c>
       <c r="J513" t="n">
-        <v>61980</v>
+        <v>63584.8128</v>
       </c>
     </row>
     <row r="514">
@@ -21374,12 +21374,12 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>17:13:00</t>
+          <t>17:39:44</t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
         <is>
-          <t>17:17:00</t>
+          <t>17:43:44</t>
         </is>
       </c>
       <c r="E514" t="inlineStr">
@@ -21395,10 +21395,10 @@
         <v>9</v>
       </c>
       <c r="I514" t="n">
-        <v>61980</v>
+        <v>63584.8128</v>
       </c>
       <c r="J514" t="n">
-        <v>62220</v>
+        <v>63824.8128</v>
       </c>
     </row>
     <row r="515">
@@ -21414,12 +21414,12 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>17:17:00</t>
+          <t>17:43:44</t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>17:37:00</t>
+          <t>18:03:44</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -21435,10 +21435,10 @@
         <v>9</v>
       </c>
       <c r="I515" t="n">
-        <v>62220</v>
+        <v>63824.8128</v>
       </c>
       <c r="J515" t="n">
-        <v>63420</v>
+        <v>65024.8128</v>
       </c>
     </row>
     <row r="516">
@@ -21454,12 +21454,12 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>17:37:00</t>
+          <t>18:03:44</t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
         <is>
-          <t>17:57:00</t>
+          <t>18:23:44</t>
         </is>
       </c>
       <c r="E516" t="inlineStr">
@@ -21475,10 +21475,10 @@
         <v>9</v>
       </c>
       <c r="I516" t="n">
-        <v>63420</v>
+        <v>65024.8128</v>
       </c>
       <c r="J516" t="n">
-        <v>64620</v>
+        <v>66224.8128</v>
       </c>
     </row>
     <row r="517">
@@ -21494,12 +21494,12 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>17:57:00</t>
+          <t>18:23:44</t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
         <is>
-          <t>18:21:00</t>
+          <t>18:47:44</t>
         </is>
       </c>
       <c r="E517" t="inlineStr">
@@ -21517,10 +21517,10 @@
         <v>9</v>
       </c>
       <c r="I517" t="n">
-        <v>64620</v>
+        <v>66224.8128</v>
       </c>
       <c r="J517" t="n">
-        <v>66060</v>
+        <v>67664.8128</v>
       </c>
     </row>
     <row r="518">
@@ -21536,12 +21536,12 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>18:21:00</t>
+          <t>18:47:44</t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
         <is>
-          <t>18:24:00</t>
+          <t>18:50:44</t>
         </is>
       </c>
       <c r="E518" t="inlineStr">
@@ -21557,10 +21557,10 @@
         <v>9</v>
       </c>
       <c r="I518" t="n">
-        <v>66060</v>
+        <v>67664.8128</v>
       </c>
       <c r="J518" t="n">
-        <v>66240</v>
+        <v>67844.8128</v>
       </c>
     </row>
     <row r="519">
@@ -21576,12 +21576,12 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>18:24:00</t>
+          <t>18:50:44</t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
         <is>
-          <t>18:48:00</t>
+          <t>19:14:44</t>
         </is>
       </c>
       <c r="E519" t="inlineStr">
@@ -21599,10 +21599,10 @@
         <v>9</v>
       </c>
       <c r="I519" t="n">
-        <v>66240</v>
+        <v>67844.8128</v>
       </c>
       <c r="J519" t="n">
-        <v>67680</v>
+        <v>69284.8128</v>
       </c>
     </row>
     <row r="520">
@@ -21618,12 +21618,12 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>18:48:00</t>
+          <t>19:14:44</t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
         <is>
-          <t>19:04:00</t>
+          <t>19:30:44</t>
         </is>
       </c>
       <c r="E520" t="inlineStr">
@@ -21639,10 +21639,10 @@
         <v>9</v>
       </c>
       <c r="I520" t="n">
-        <v>67680</v>
+        <v>69284.8128</v>
       </c>
       <c r="J520" t="n">
-        <v>68640</v>
+        <v>70244.8128</v>
       </c>
     </row>
     <row r="521">
@@ -21658,12 +21658,12 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>19:04:00</t>
+          <t>19:30:44</t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
         <is>
-          <t>19:28:00</t>
+          <t>19:54:44</t>
         </is>
       </c>
       <c r="E521" t="inlineStr">
@@ -21681,10 +21681,10 @@
         <v>9</v>
       </c>
       <c r="I521" t="n">
-        <v>68640</v>
+        <v>70244.8128</v>
       </c>
       <c r="J521" t="n">
-        <v>70080</v>
+        <v>71684.8128</v>
       </c>
     </row>
     <row r="522">
@@ -21700,12 +21700,12 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>19:28:00</t>
+          <t>19:54:44</t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
         <is>
-          <t>19:44:00</t>
+          <t>20:10:44</t>
         </is>
       </c>
       <c r="E522" t="inlineStr">
@@ -21721,10 +21721,10 @@
         <v>9</v>
       </c>
       <c r="I522" t="n">
-        <v>70080</v>
+        <v>71684.8128</v>
       </c>
       <c r="J522" t="n">
-        <v>71040</v>
+        <v>72644.8128</v>
       </c>
     </row>
     <row r="523">
@@ -21740,12 +21740,12 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>19:44:00</t>
+          <t>20:10:44</t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
         <is>
-          <t>20:08:00</t>
+          <t>20:34:44</t>
         </is>
       </c>
       <c r="E523" t="inlineStr">
@@ -21763,10 +21763,10 @@
         <v>9</v>
       </c>
       <c r="I523" t="n">
-        <v>71040</v>
+        <v>72644.8128</v>
       </c>
       <c r="J523" t="n">
-        <v>72480</v>
+        <v>74084.8128</v>
       </c>
     </row>
     <row r="524">
@@ -21782,12 +21782,12 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>20:08:00</t>
+          <t>20:34:44</t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>20:28:00</t>
+          <t>20:54:44</t>
         </is>
       </c>
       <c r="E524" t="inlineStr">
@@ -21803,10 +21803,10 @@
         <v>9</v>
       </c>
       <c r="I524" t="n">
-        <v>72480</v>
+        <v>74084.8128</v>
       </c>
       <c r="J524" t="n">
-        <v>73680</v>
+        <v>75284.8128</v>
       </c>
     </row>
     <row r="525">
@@ -22846,12 +22846,12 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t>14:21:00</t>
+          <t>14:47:04</t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:11:04</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -22869,10 +22869,10 @@
         <v>10</v>
       </c>
       <c r="I550" t="n">
-        <v>51660</v>
+        <v>53224.8128</v>
       </c>
       <c r="J550" t="n">
-        <v>53100</v>
+        <v>54664.8128</v>
       </c>
     </row>
     <row r="551">
@@ -22888,12 +22888,12 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t>14:45:00</t>
+          <t>15:11:04</t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>14:49:00</t>
+          <t>15:15:04</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -22909,10 +22909,10 @@
         <v>10</v>
       </c>
       <c r="I551" t="n">
-        <v>53100</v>
+        <v>54664.8128</v>
       </c>
       <c r="J551" t="n">
-        <v>53340</v>
+        <v>54904.8128</v>
       </c>
     </row>
     <row r="552">
@@ -22928,12 +22928,12 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>14:49:00</t>
+          <t>15:15:04</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
         <is>
-          <t>15:13:00</t>
+          <t>15:39:04</t>
         </is>
       </c>
       <c r="E552" t="inlineStr">
@@ -22951,10 +22951,10 @@
         <v>10</v>
       </c>
       <c r="I552" t="n">
-        <v>53340</v>
+        <v>54904.8128</v>
       </c>
       <c r="J552" t="n">
-        <v>54780</v>
+        <v>56344.8128</v>
       </c>
     </row>
     <row r="553">
@@ -22970,12 +22970,12 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>15:13:00</t>
+          <t>15:39:04</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
         <is>
-          <t>15:33:00</t>
+          <t>15:59:04</t>
         </is>
       </c>
       <c r="E553" t="inlineStr">
@@ -22991,10 +22991,10 @@
         <v>10</v>
       </c>
       <c r="I553" t="n">
-        <v>54780</v>
+        <v>56344.8128</v>
       </c>
       <c r="J553" t="n">
-        <v>55980</v>
+        <v>57544.8128</v>
       </c>
     </row>
     <row r="554">
@@ -23010,12 +23010,12 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>15:33:00</t>
+          <t>15:59:04</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>15:34:00</t>
+          <t>16:00:04</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -23031,10 +23031,10 @@
         <v>10</v>
       </c>
       <c r="I554" t="n">
-        <v>55980</v>
+        <v>57544.8128</v>
       </c>
       <c r="J554" t="n">
-        <v>56040</v>
+        <v>57604.8128</v>
       </c>
     </row>
     <row r="555">
@@ -23050,12 +23050,12 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>15:34:00</t>
+          <t>16:00:04</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
         <is>
-          <t>15:58:00</t>
+          <t>16:24:04</t>
         </is>
       </c>
       <c r="E555" t="inlineStr">
@@ -23073,10 +23073,10 @@
         <v>10</v>
       </c>
       <c r="I555" t="n">
-        <v>56040</v>
+        <v>57604.8128</v>
       </c>
       <c r="J555" t="n">
-        <v>57480</v>
+        <v>59044.8128</v>
       </c>
     </row>
     <row r="556">
@@ -23092,12 +23092,12 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>15:58:00</t>
+          <t>16:24:04</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
         <is>
-          <t>15:59:00</t>
+          <t>16:25:04</t>
         </is>
       </c>
       <c r="E556" t="inlineStr">
@@ -23113,10 +23113,10 @@
         <v>10</v>
       </c>
       <c r="I556" t="n">
-        <v>57480</v>
+        <v>59044.8128</v>
       </c>
       <c r="J556" t="n">
-        <v>57540</v>
+        <v>59104.8128</v>
       </c>
     </row>
     <row r="557">
@@ -23132,12 +23132,12 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>15:59:00</t>
+          <t>16:25:04</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
         <is>
-          <t>16:23:00</t>
+          <t>16:49:04</t>
         </is>
       </c>
       <c r="E557" t="inlineStr">
@@ -23155,10 +23155,10 @@
         <v>10</v>
       </c>
       <c r="I557" t="n">
-        <v>57540</v>
+        <v>59104.8128</v>
       </c>
       <c r="J557" t="n">
-        <v>58980</v>
+        <v>60544.8128</v>
       </c>
     </row>
     <row r="558">
@@ -23174,12 +23174,12 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>16:23:00</t>
+          <t>16:49:04</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>16:27:00</t>
+          <t>16:53:04</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
@@ -23195,10 +23195,10 @@
         <v>10</v>
       </c>
       <c r="I558" t="n">
-        <v>58980</v>
+        <v>60544.8128</v>
       </c>
       <c r="J558" t="n">
-        <v>59220</v>
+        <v>60784.8128</v>
       </c>
     </row>
     <row r="559">
@@ -23214,12 +23214,12 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>16:27:00</t>
+          <t>16:53:04</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
         <is>
-          <t>16:51:00</t>
+          <t>17:17:04</t>
         </is>
       </c>
       <c r="E559" t="inlineStr">
@@ -23237,10 +23237,10 @@
         <v>10</v>
       </c>
       <c r="I559" t="n">
-        <v>59220</v>
+        <v>60784.8128</v>
       </c>
       <c r="J559" t="n">
-        <v>60660</v>
+        <v>62224.8128</v>
       </c>
     </row>
     <row r="560">
@@ -23256,12 +23256,12 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>16:51:00</t>
+          <t>17:17:04</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>16:59:00</t>
+          <t>17:25:04</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
@@ -23277,10 +23277,10 @@
         <v>10</v>
       </c>
       <c r="I560" t="n">
-        <v>60660</v>
+        <v>62224.8128</v>
       </c>
       <c r="J560" t="n">
-        <v>61140</v>
+        <v>62704.8128</v>
       </c>
     </row>
     <row r="561">
@@ -23296,12 +23296,12 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>16:59:00</t>
+          <t>17:25:04</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
         <is>
-          <t>17:23:00</t>
+          <t>17:49:04</t>
         </is>
       </c>
       <c r="E561" t="inlineStr">
@@ -23319,10 +23319,10 @@
         <v>10</v>
       </c>
       <c r="I561" t="n">
-        <v>61140</v>
+        <v>62704.8128</v>
       </c>
       <c r="J561" t="n">
-        <v>62580</v>
+        <v>64144.8128</v>
       </c>
     </row>
     <row r="562">
@@ -23338,12 +23338,12 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>17:23:00</t>
+          <t>17:49:04</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
         <is>
-          <t>17:27:00</t>
+          <t>17:53:04</t>
         </is>
       </c>
       <c r="E562" t="inlineStr">
@@ -23359,10 +23359,10 @@
         <v>10</v>
       </c>
       <c r="I562" t="n">
-        <v>62580</v>
+        <v>64144.8128</v>
       </c>
       <c r="J562" t="n">
-        <v>62820</v>
+        <v>64384.8128</v>
       </c>
     </row>
     <row r="563">
@@ -23378,12 +23378,12 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>17:27:00</t>
+          <t>17:53:04</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>18:17:04</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
@@ -23401,10 +23401,10 @@
         <v>10</v>
       </c>
       <c r="I563" t="n">
-        <v>62820</v>
+        <v>64384.8128</v>
       </c>
       <c r="J563" t="n">
-        <v>64260</v>
+        <v>65824.8128</v>
       </c>
     </row>
     <row r="564">
@@ -23420,12 +23420,12 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>17:51:00</t>
+          <t>18:17:04</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
         <is>
-          <t>17:55:00</t>
+          <t>18:21:04</t>
         </is>
       </c>
       <c r="E564" t="inlineStr">
@@ -23441,10 +23441,10 @@
         <v>10</v>
       </c>
       <c r="I564" t="n">
-        <v>64260</v>
+        <v>65824.8128</v>
       </c>
       <c r="J564" t="n">
-        <v>64500</v>
+        <v>66064.8128</v>
       </c>
     </row>
     <row r="565">
@@ -23460,12 +23460,12 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>17:55:00</t>
+          <t>18:21:04</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
         <is>
-          <t>18:23:00</t>
+          <t>18:49:04</t>
         </is>
       </c>
       <c r="E565" t="inlineStr">
@@ -23481,10 +23481,10 @@
         <v>10</v>
       </c>
       <c r="I565" t="n">
-        <v>64500</v>
+        <v>66064.8128</v>
       </c>
       <c r="J565" t="n">
-        <v>66180</v>
+        <v>67744.8128</v>
       </c>
     </row>
     <row r="566">
@@ -23500,12 +23500,12 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>18:23:00</t>
+          <t>18:49:04</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>18:53:04</t>
         </is>
       </c>
       <c r="E566" t="inlineStr">
@@ -23521,10 +23521,10 @@
         <v>10</v>
       </c>
       <c r="I566" t="n">
-        <v>66180</v>
+        <v>67744.8128</v>
       </c>
       <c r="J566" t="n">
-        <v>66420</v>
+        <v>67984.8128</v>
       </c>
     </row>
     <row r="567">
@@ -23540,12 +23540,12 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>18:27:00</t>
+          <t>18:53:04</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
         <is>
-          <t>18:37:00</t>
+          <t>19:03:04</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -23561,10 +23561,10 @@
         <v>10</v>
       </c>
       <c r="I567" t="n">
-        <v>66420</v>
+        <v>67984.8128</v>
       </c>
       <c r="J567" t="n">
-        <v>67020</v>
+        <v>68584.8128</v>
       </c>
     </row>
     <row r="568">
@@ -23580,12 +23580,12 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>18:37:00</t>
+          <t>19:03:04</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
         <is>
-          <t>19:01:00</t>
+          <t>19:27:04</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -23603,10 +23603,10 @@
         <v>10</v>
       </c>
       <c r="I568" t="n">
-        <v>67020</v>
+        <v>68584.8128</v>
       </c>
       <c r="J568" t="n">
-        <v>68460</v>
+        <v>70024.8128</v>
       </c>
     </row>
     <row r="569">
@@ -23622,12 +23622,12 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>19:01:00</t>
+          <t>19:27:04</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
         <is>
-          <t>19:21:00</t>
+          <t>19:47:04</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -23643,10 +23643,10 @@
         <v>10</v>
       </c>
       <c r="I569" t="n">
-        <v>68460</v>
+        <v>70024.8128</v>
       </c>
       <c r="J569" t="n">
-        <v>69660</v>
+        <v>71224.8128</v>
       </c>
     </row>
     <row r="570">
@@ -23662,12 +23662,12 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>19:21:00</t>
+          <t>19:47:04</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>19:22:00</t>
+          <t>19:48:04</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
@@ -23683,10 +23683,10 @@
         <v>10</v>
       </c>
       <c r="I570" t="n">
-        <v>69660</v>
+        <v>71224.8128</v>
       </c>
       <c r="J570" t="n">
-        <v>69720</v>
+        <v>71284.8128</v>
       </c>
     </row>
     <row r="571">
@@ -23702,12 +23702,12 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>19:22:00</t>
+          <t>19:48:04</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
         <is>
-          <t>19:46:00</t>
+          <t>20:12:04</t>
         </is>
       </c>
       <c r="E571" t="inlineStr">
@@ -23725,10 +23725,10 @@
         <v>10</v>
       </c>
       <c r="I571" t="n">
-        <v>69720</v>
+        <v>71284.8128</v>
       </c>
       <c r="J571" t="n">
-        <v>71160</v>
+        <v>72724.8128</v>
       </c>
     </row>
     <row r="572">
@@ -23744,12 +23744,12 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>19:46:00</t>
+          <t>20:12:04</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
         <is>
-          <t>20:06:00</t>
+          <t>20:32:04</t>
         </is>
       </c>
       <c r="E572" t="inlineStr">
@@ -23765,10 +23765,10 @@
         <v>10</v>
       </c>
       <c r="I572" t="n">
-        <v>71160</v>
+        <v>72724.8128</v>
       </c>
       <c r="J572" t="n">
-        <v>72360</v>
+        <v>73924.8128</v>
       </c>
     </row>
     <row r="573">
@@ -24924,12 +24924,12 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>15:53:00</t>
+          <t>16:19:51</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
         <is>
-          <t>15:57:00</t>
+          <t>16:23:51</t>
         </is>
       </c>
       <c r="E601" t="inlineStr">
@@ -24945,10 +24945,10 @@
         <v>11</v>
       </c>
       <c r="I601" t="n">
-        <v>57180</v>
+        <v>58791.35253333333</v>
       </c>
       <c r="J601" t="n">
-        <v>57420</v>
+        <v>59031.35253333333</v>
       </c>
     </row>
     <row r="602">
@@ -24964,12 +24964,12 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t>15:57:00</t>
+          <t>16:23:51</t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>16:21:00</t>
+          <t>16:47:51</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
@@ -24987,10 +24987,10 @@
         <v>11</v>
       </c>
       <c r="I602" t="n">
-        <v>57420</v>
+        <v>59031.35253333333</v>
       </c>
       <c r="J602" t="n">
-        <v>58860</v>
+        <v>60471.35253333333</v>
       </c>
     </row>
     <row r="603">
@@ -25006,12 +25006,12 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t>16:21:00</t>
+          <t>16:47:51</t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>16:29:00</t>
+          <t>16:55:51</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
@@ -25027,10 +25027,10 @@
         <v>11</v>
       </c>
       <c r="I603" t="n">
-        <v>58860</v>
+        <v>60471.35253333333</v>
       </c>
       <c r="J603" t="n">
-        <v>59340</v>
+        <v>60951.35253333333</v>
       </c>
     </row>
     <row r="604">
@@ -25046,12 +25046,12 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t>16:29:00</t>
+          <t>16:55:51</t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>16:53:00</t>
+          <t>17:19:51</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -25069,10 +25069,10 @@
         <v>11</v>
       </c>
       <c r="I604" t="n">
-        <v>59340</v>
+        <v>60951.35253333333</v>
       </c>
       <c r="J604" t="n">
-        <v>60780</v>
+        <v>62391.35253333333</v>
       </c>
     </row>
     <row r="605">
@@ -25088,12 +25088,12 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t>16:53:00</t>
+          <t>17:19:51</t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>16:57:00</t>
+          <t>17:23:51</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
@@ -25109,10 +25109,10 @@
         <v>11</v>
       </c>
       <c r="I605" t="n">
-        <v>60780</v>
+        <v>62391.35253333333</v>
       </c>
       <c r="J605" t="n">
-        <v>61020</v>
+        <v>62631.35253333333</v>
       </c>
     </row>
     <row r="606">
@@ -25128,12 +25128,12 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t>16:57:00</t>
+          <t>17:23:51</t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>17:21:00</t>
+          <t>17:47:51</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
@@ -25151,10 +25151,10 @@
         <v>11</v>
       </c>
       <c r="I606" t="n">
-        <v>61020</v>
+        <v>62631.35253333333</v>
       </c>
       <c r="J606" t="n">
-        <v>62460</v>
+        <v>64071.35253333333</v>
       </c>
     </row>
     <row r="607">
@@ -25170,12 +25170,12 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>17:21:00</t>
+          <t>17:47:51</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>17:25:00</t>
+          <t>17:51:51</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
@@ -25191,10 +25191,10 @@
         <v>11</v>
       </c>
       <c r="I607" t="n">
-        <v>62460</v>
+        <v>64071.35253333333</v>
       </c>
       <c r="J607" t="n">
-        <v>62700</v>
+        <v>64311.35253333333</v>
       </c>
     </row>
     <row r="608">
@@ -25210,12 +25210,12 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>17:25:00</t>
+          <t>17:51:51</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:11:51</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
@@ -25231,10 +25231,10 @@
         <v>11</v>
       </c>
       <c r="I608" t="n">
-        <v>62700</v>
+        <v>64311.35253333333</v>
       </c>
       <c r="J608" t="n">
-        <v>63900</v>
+        <v>65511.35253333333</v>
       </c>
     </row>
     <row r="609">
@@ -25250,12 +25250,12 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>17:45:00</t>
+          <t>18:11:51</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>18:15:51</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
@@ -25271,10 +25271,10 @@
         <v>11</v>
       </c>
       <c r="I609" t="n">
-        <v>63900</v>
+        <v>65511.35253333333</v>
       </c>
       <c r="J609" t="n">
-        <v>64140</v>
+        <v>65751.35253333332</v>
       </c>
     </row>
     <row r="610">
@@ -25290,12 +25290,12 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>17:49:00</t>
+          <t>18:15:51</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>18:13:00</t>
+          <t>18:39:51</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
@@ -25313,10 +25313,10 @@
         <v>11</v>
       </c>
       <c r="I610" t="n">
-        <v>64140</v>
+        <v>65751.35253333332</v>
       </c>
       <c r="J610" t="n">
-        <v>65580</v>
+        <v>67191.35253333332</v>
       </c>
     </row>
     <row r="611">
@@ -25332,12 +25332,12 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>18:13:00</t>
+          <t>18:39:51</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>18:45:51</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
@@ -25353,10 +25353,10 @@
         <v>11</v>
       </c>
       <c r="I611" t="n">
-        <v>65580</v>
+        <v>67191.35253333332</v>
       </c>
       <c r="J611" t="n">
-        <v>65940</v>
+        <v>67551.35253333332</v>
       </c>
     </row>
     <row r="612">
@@ -25372,12 +25372,12 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t>18:19:00</t>
+          <t>18:45:51</t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>18:43:00</t>
+          <t>19:09:51</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
@@ -25395,10 +25395,10 @@
         <v>11</v>
       </c>
       <c r="I612" t="n">
-        <v>65940</v>
+        <v>67551.35253333332</v>
       </c>
       <c r="J612" t="n">
-        <v>67380</v>
+        <v>68991.35253333332</v>
       </c>
     </row>
     <row r="613">
@@ -25414,12 +25414,12 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>18:43:00</t>
+          <t>19:09:51</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>18:54:00</t>
+          <t>19:20:51</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
@@ -25435,10 +25435,10 @@
         <v>11</v>
       </c>
       <c r="I613" t="n">
-        <v>67380</v>
+        <v>68991.35253333332</v>
       </c>
       <c r="J613" t="n">
-        <v>68040</v>
+        <v>69651.35253333332</v>
       </c>
     </row>
     <row r="614">
@@ -25454,12 +25454,12 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>18:54:00</t>
+          <t>19:20:51</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>19:18:00</t>
+          <t>19:44:51</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
@@ -25477,10 +25477,10 @@
         <v>11</v>
       </c>
       <c r="I614" t="n">
-        <v>68040</v>
+        <v>69651.35253333332</v>
       </c>
       <c r="J614" t="n">
-        <v>69480</v>
+        <v>71091.35253333332</v>
       </c>
     </row>
     <row r="615">
@@ -25496,12 +25496,12 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>19:18:00</t>
+          <t>19:44:51</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>19:38:00</t>
+          <t>20:04:51</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
@@ -25517,10 +25517,10 @@
         <v>11</v>
       </c>
       <c r="I615" t="n">
-        <v>69480</v>
+        <v>71091.35253333332</v>
       </c>
       <c r="J615" t="n">
-        <v>70680</v>
+        <v>72291.35253333332</v>
       </c>
     </row>
     <row r="616">
@@ -26676,12 +26676,12 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t>16:03:00</t>
+          <t>16:29:51</t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
         <is>
-          <t>16:23:00</t>
+          <t>16:49:51</t>
         </is>
       </c>
       <c r="E644" t="inlineStr">
@@ -26697,10 +26697,10 @@
         <v>12</v>
       </c>
       <c r="I644" t="n">
-        <v>57780</v>
+        <v>59391.35253333333</v>
       </c>
       <c r="J644" t="n">
-        <v>58980</v>
+        <v>60591.35253333333</v>
       </c>
     </row>
     <row r="645">
@@ -26716,12 +26716,12 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t>16:23:00</t>
+          <t>16:49:51</t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
         <is>
-          <t>16:39:00</t>
+          <t>17:05:51</t>
         </is>
       </c>
       <c r="E645" t="inlineStr">
@@ -26737,10 +26737,10 @@
         <v>12</v>
       </c>
       <c r="I645" t="n">
-        <v>58980</v>
+        <v>60591.35253333333</v>
       </c>
       <c r="J645" t="n">
-        <v>59940</v>
+        <v>61551.35253333333</v>
       </c>
     </row>
     <row r="646">
@@ -26756,12 +26756,12 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t>16:39:00</t>
+          <t>17:05:51</t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>17:29:51</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -26779,10 +26779,10 @@
         <v>12</v>
       </c>
       <c r="I646" t="n">
-        <v>59940</v>
+        <v>61551.35253333333</v>
       </c>
       <c r="J646" t="n">
-        <v>61380</v>
+        <v>62991.35253333333</v>
       </c>
     </row>
     <row r="647">
@@ -26798,12 +26798,12 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t>17:03:00</t>
+          <t>17:29:51</t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>17:34:00</t>
+          <t>18:00:51</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -26819,10 +26819,10 @@
         <v>12</v>
       </c>
       <c r="I647" t="n">
-        <v>61380</v>
+        <v>62991.35253333333</v>
       </c>
       <c r="J647" t="n">
-        <v>63240</v>
+        <v>64851.35253333333</v>
       </c>
     </row>
     <row r="648">
@@ -26838,12 +26838,12 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t>17:34:00</t>
+          <t>18:00:51</t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
         <is>
-          <t>17:58:00</t>
+          <t>18:24:51</t>
         </is>
       </c>
       <c r="E648" t="inlineStr">
@@ -26861,10 +26861,10 @@
         <v>12</v>
       </c>
       <c r="I648" t="n">
-        <v>63240</v>
+        <v>64851.35253333333</v>
       </c>
       <c r="J648" t="n">
-        <v>64680</v>
+        <v>66291.35253333332</v>
       </c>
     </row>
     <row r="649">
@@ -26880,12 +26880,12 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t>17:58:00</t>
+          <t>18:24:51</t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
         <is>
-          <t>17:59:00</t>
+          <t>18:25:51</t>
         </is>
       </c>
       <c r="E649" t="inlineStr">
@@ -26901,10 +26901,10 @@
         <v>12</v>
       </c>
       <c r="I649" t="n">
-        <v>64680</v>
+        <v>66291.35253333332</v>
       </c>
       <c r="J649" t="n">
-        <v>64740</v>
+        <v>66351.35253333332</v>
       </c>
     </row>
     <row r="650">
@@ -26920,12 +26920,12 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t>17:59:00</t>
+          <t>18:25:51</t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>18:23:00</t>
+          <t>18:49:51</t>
         </is>
       </c>
       <c r="E650" t="inlineStr">
@@ -26943,10 +26943,10 @@
         <v>12</v>
       </c>
       <c r="I650" t="n">
-        <v>64740</v>
+        <v>66351.35253333332</v>
       </c>
       <c r="J650" t="n">
-        <v>66180</v>
+        <v>67791.35253333332</v>
       </c>
     </row>
     <row r="651">
@@ -26962,12 +26962,12 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t>18:23:00</t>
+          <t>18:49:51</t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
         <is>
-          <t>18:43:00</t>
+          <t>19:09:51</t>
         </is>
       </c>
       <c r="E651" t="inlineStr">
@@ -26983,10 +26983,10 @@
         <v>12</v>
       </c>
       <c r="I651" t="n">
-        <v>66180</v>
+        <v>67791.35253333332</v>
       </c>
       <c r="J651" t="n">
-        <v>67380</v>
+        <v>68991.35253333332</v>
       </c>
     </row>
     <row r="652">
@@ -27002,12 +27002,12 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t>18:43:00</t>
+          <t>19:09:51</t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
         <is>
-          <t>19:03:00</t>
+          <t>19:29:51</t>
         </is>
       </c>
       <c r="E652" t="inlineStr">
@@ -27023,10 +27023,10 @@
         <v>12</v>
       </c>
       <c r="I652" t="n">
-        <v>67380</v>
+        <v>68991.35253333332</v>
       </c>
       <c r="J652" t="n">
-        <v>68580</v>
+        <v>70191.35253333332</v>
       </c>
     </row>
     <row r="653">
@@ -27042,12 +27042,12 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t>19:03:00</t>
+          <t>19:29:51</t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>19:33:51</t>
         </is>
       </c>
       <c r="E653" t="inlineStr">
@@ -27063,10 +27063,10 @@
         <v>12</v>
       </c>
       <c r="I653" t="n">
-        <v>68580</v>
+        <v>70191.35253333332</v>
       </c>
       <c r="J653" t="n">
-        <v>68820</v>
+        <v>70431.35253333332</v>
       </c>
     </row>
     <row r="654">
@@ -27082,12 +27082,12 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t>19:07:00</t>
+          <t>19:33:51</t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>19:31:00</t>
+          <t>19:57:51</t>
         </is>
       </c>
       <c r="E654" t="inlineStr">
@@ -27105,10 +27105,10 @@
         <v>12</v>
       </c>
       <c r="I654" t="n">
-        <v>68820</v>
+        <v>70431.35253333332</v>
       </c>
       <c r="J654" t="n">
-        <v>70260</v>
+        <v>71871.35253333332</v>
       </c>
     </row>
     <row r="655">
@@ -27124,12 +27124,12 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t>19:31:00</t>
+          <t>19:57:51</t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
         <is>
-          <t>19:51:00</t>
+          <t>20:17:51</t>
         </is>
       </c>
       <c r="E655" t="inlineStr">
@@ -27145,10 +27145,10 @@
         <v>12</v>
       </c>
       <c r="I655" t="n">
-        <v>70260</v>
+        <v>71871.35253333332</v>
       </c>
       <c r="J655" t="n">
-        <v>71460</v>
+        <v>73071.35253333332</v>
       </c>
     </row>
     <row r="656">
@@ -32730,12 +32730,12 @@
       </c>
       <c r="C793" t="inlineStr">
         <is>
-          <t>14:36:00</t>
+          <t>15:01:32</t>
         </is>
       </c>
       <c r="D793" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:25:32</t>
         </is>
       </c>
       <c r="E793" t="inlineStr">
@@ -32753,10 +32753,10 @@
         <v>16</v>
       </c>
       <c r="I793" t="n">
-        <v>52560</v>
+        <v>54092.02773333334</v>
       </c>
       <c r="J793" t="n">
-        <v>54000</v>
+        <v>55532.02773333334</v>
       </c>
     </row>
     <row r="794">
@@ -32772,12 +32772,12 @@
       </c>
       <c r="C794" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:25:32</t>
         </is>
       </c>
       <c r="D794" t="inlineStr">
         <is>
-          <t>15:20:00</t>
+          <t>15:45:32</t>
         </is>
       </c>
       <c r="E794" t="inlineStr">
@@ -32793,10 +32793,10 @@
         <v>16</v>
       </c>
       <c r="I794" t="n">
-        <v>54000</v>
+        <v>55532.02773333334</v>
       </c>
       <c r="J794" t="n">
-        <v>55200</v>
+        <v>56732.02773333334</v>
       </c>
     </row>
     <row r="795">
@@ -32812,12 +32812,12 @@
       </c>
       <c r="C795" t="inlineStr">
         <is>
-          <t>15:20:00</t>
+          <t>15:45:32</t>
         </is>
       </c>
       <c r="D795" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>15:46:32</t>
         </is>
       </c>
       <c r="E795" t="inlineStr">
@@ -32833,10 +32833,10 @@
         <v>16</v>
       </c>
       <c r="I795" t="n">
-        <v>55200</v>
+        <v>56732.02773333334</v>
       </c>
       <c r="J795" t="n">
-        <v>55260</v>
+        <v>56792.02773333334</v>
       </c>
     </row>
     <row r="796">
@@ -32852,12 +32852,12 @@
       </c>
       <c r="C796" t="inlineStr">
         <is>
-          <t>15:21:00</t>
+          <t>15:46:32</t>
         </is>
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:10:32</t>
         </is>
       </c>
       <c r="E796" t="inlineStr">
@@ -32875,10 +32875,10 @@
         <v>16</v>
       </c>
       <c r="I796" t="n">
-        <v>55260</v>
+        <v>56792.02773333334</v>
       </c>
       <c r="J796" t="n">
-        <v>56700</v>
+        <v>58232.02773333334</v>
       </c>
     </row>
     <row r="797">
@@ -32894,12 +32894,12 @@
       </c>
       <c r="C797" t="inlineStr">
         <is>
-          <t>15:45:00</t>
+          <t>16:10:32</t>
         </is>
       </c>
       <c r="D797" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>16:30:32</t>
         </is>
       </c>
       <c r="E797" t="inlineStr">
@@ -32915,10 +32915,10 @@
         <v>16</v>
       </c>
       <c r="I797" t="n">
-        <v>56700</v>
+        <v>58232.02773333334</v>
       </c>
       <c r="J797" t="n">
-        <v>57900</v>
+        <v>59432.02773333334</v>
       </c>
     </row>
     <row r="798">
@@ -32934,12 +32934,12 @@
       </c>
       <c r="C798" t="inlineStr">
         <is>
-          <t>16:05:00</t>
+          <t>16:30:32</t>
         </is>
       </c>
       <c r="D798" t="inlineStr">
         <is>
-          <t>16:32:00</t>
+          <t>16:57:32</t>
         </is>
       </c>
       <c r="E798" t="inlineStr">
@@ -32955,10 +32955,10 @@
         <v>16</v>
       </c>
       <c r="I798" t="n">
-        <v>57900</v>
+        <v>59432.02773333334</v>
       </c>
       <c r="J798" t="n">
-        <v>59520</v>
+        <v>61052.02773333334</v>
       </c>
     </row>
     <row r="799">
@@ -32974,12 +32974,12 @@
       </c>
       <c r="C799" t="inlineStr">
         <is>
-          <t>16:32:00</t>
+          <t>16:57:32</t>
         </is>
       </c>
       <c r="D799" t="inlineStr">
         <is>
-          <t>16:36:00</t>
+          <t>17:01:32</t>
         </is>
       </c>
       <c r="E799" t="inlineStr">
@@ -32995,10 +32995,10 @@
         <v>16</v>
       </c>
       <c r="I799" t="n">
-        <v>59520</v>
+        <v>61052.02773333334</v>
       </c>
       <c r="J799" t="n">
-        <v>59760</v>
+        <v>61292.02773333334</v>
       </c>
     </row>
     <row r="800">
@@ -33014,12 +33014,12 @@
       </c>
       <c r="C800" t="inlineStr">
         <is>
-          <t>16:36:00</t>
+          <t>17:01:32</t>
         </is>
       </c>
       <c r="D800" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:25:32</t>
         </is>
       </c>
       <c r="E800" t="inlineStr">
@@ -33037,10 +33037,10 @@
         <v>16</v>
       </c>
       <c r="I800" t="n">
-        <v>59760</v>
+        <v>61292.02773333334</v>
       </c>
       <c r="J800" t="n">
-        <v>61200</v>
+        <v>62732.02773333334</v>
       </c>
     </row>
     <row r="801">
@@ -33056,12 +33056,12 @@
       </c>
       <c r="C801" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:25:32</t>
         </is>
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>17:20:00</t>
+          <t>17:45:32</t>
         </is>
       </c>
       <c r="E801" t="inlineStr">
@@ -33077,10 +33077,10 @@
         <v>16</v>
       </c>
       <c r="I801" t="n">
-        <v>61200</v>
+        <v>62732.02773333334</v>
       </c>
       <c r="J801" t="n">
-        <v>62400</v>
+        <v>63932.02773333334</v>
       </c>
     </row>
     <row r="802">
@@ -33096,12 +33096,12 @@
       </c>
       <c r="C802" t="inlineStr">
         <is>
-          <t>17:20:00</t>
+          <t>17:45:32</t>
         </is>
       </c>
       <c r="D802" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>17:49:32</t>
         </is>
       </c>
       <c r="E802" t="inlineStr">
@@ -33117,10 +33117,10 @@
         <v>16</v>
       </c>
       <c r="I802" t="n">
-        <v>62400</v>
+        <v>63932.02773333334</v>
       </c>
       <c r="J802" t="n">
-        <v>62640</v>
+        <v>64172.02773333334</v>
       </c>
     </row>
     <row r="803">
@@ -33136,12 +33136,12 @@
       </c>
       <c r="C803" t="inlineStr">
         <is>
-          <t>17:24:00</t>
+          <t>17:49:32</t>
         </is>
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>17:48:00</t>
+          <t>18:13:32</t>
         </is>
       </c>
       <c r="E803" t="inlineStr">
@@ -33159,10 +33159,10 @@
         <v>16</v>
       </c>
       <c r="I803" t="n">
-        <v>62640</v>
+        <v>64172.02773333334</v>
       </c>
       <c r="J803" t="n">
-        <v>64080</v>
+        <v>65612.02773333334</v>
       </c>
     </row>
     <row r="804">
@@ -33178,12 +33178,12 @@
       </c>
       <c r="C804" t="inlineStr">
         <is>
-          <t>17:48:00</t>
+          <t>18:13:32</t>
         </is>
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>18:08:00</t>
+          <t>18:33:32</t>
         </is>
       </c>
       <c r="E804" t="inlineStr">
@@ -33199,10 +33199,10 @@
         <v>16</v>
       </c>
       <c r="I804" t="n">
-        <v>64080</v>
+        <v>65612.02773333334</v>
       </c>
       <c r="J804" t="n">
-        <v>65280</v>
+        <v>66812.02773333334</v>
       </c>
     </row>
     <row r="805">
